--- a/data/congress_twitter_accounts.xlsx
+++ b/data/congress_twitter_accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benediktblumenstiel/Pycharm/PoliticalSentimentAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE7AF90-EF34-424B-8D12-73147E89ACDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98BC51A-1D91-724D-A9D3-A504AAAEB80D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="500" windowWidth="41780" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="41780" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Congress" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="1673">
   <si>
     <t>https://twitter.com/SenJohnHoeven</t>
   </si>
@@ -3418,9 +3418,6 @@
   </si>
   <si>
     <t>Collins, Susan M.</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>Leahy, Patrick J.</t>
@@ -5402,7 +5399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F539"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="192" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -5416,22 +5413,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5442,7 +5439,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>565</v>
@@ -5451,7 +5448,7 @@
         <v>1123</v>
       </c>
       <c r="F2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5462,7 +5459,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>514</v>
@@ -5471,7 +5468,7 @@
         <v>1124</v>
       </c>
       <c r="F3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5482,7 +5479,7 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>509</v>
@@ -5491,7 +5488,7 @@
         <v>1123</v>
       </c>
       <c r="F4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5502,7 +5499,7 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>555</v>
@@ -5511,7 +5508,7 @@
         <v>1124</v>
       </c>
       <c r="F5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5522,7 +5519,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>461</v>
@@ -5531,7 +5528,7 @@
         <v>1123</v>
       </c>
       <c r="F6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5542,7 +5539,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>551</v>
@@ -5551,7 +5548,7 @@
         <v>1124</v>
       </c>
       <c r="F7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5562,7 +5559,7 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>472</v>
@@ -5571,7 +5568,7 @@
         <v>1123</v>
       </c>
       <c r="F8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5582,7 +5579,7 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>516</v>
@@ -5591,7 +5588,7 @@
         <v>1124</v>
       </c>
       <c r="F9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5602,7 +5599,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>507</v>
@@ -5611,7 +5608,7 @@
         <v>1124</v>
       </c>
       <c r="F10" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5622,7 +5619,7 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>494</v>
@@ -5631,7 +5628,7 @@
         <v>1123</v>
       </c>
       <c r="F11" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5642,7 +5639,7 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>500</v>
@@ -5651,7 +5648,7 @@
         <v>1124</v>
       </c>
       <c r="F12" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5662,7 +5659,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>518</v>
@@ -5671,7 +5668,7 @@
         <v>1123</v>
       </c>
       <c r="F13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -5682,7 +5679,7 @@
         <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>546</v>
@@ -5691,7 +5688,7 @@
         <v>1124</v>
       </c>
       <c r="F14" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5702,7 +5699,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>501</v>
@@ -5711,7 +5708,7 @@
         <v>1123</v>
       </c>
       <c r="F15" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -5722,7 +5719,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>462</v>
@@ -5731,7 +5728,7 @@
         <v>1123</v>
       </c>
       <c r="F16" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5742,7 +5739,7 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>544</v>
@@ -5751,7 +5748,7 @@
         <v>1123</v>
       </c>
       <c r="F17" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -5762,7 +5759,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>464</v>
@@ -5771,7 +5768,7 @@
         <v>1124</v>
       </c>
       <c r="F18" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -5782,7 +5779,7 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>482</v>
@@ -5791,7 +5788,7 @@
         <v>1124</v>
       </c>
       <c r="F19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -5802,7 +5799,7 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>462</v>
@@ -5811,7 +5808,7 @@
         <v>1123</v>
       </c>
       <c r="F20" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -5822,7 +5819,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>484</v>
@@ -5831,7 +5828,7 @@
         <v>1124</v>
       </c>
       <c r="F21" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -5842,7 +5839,7 @@
         <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>548</v>
@@ -5851,7 +5848,7 @@
         <v>1123</v>
       </c>
       <c r="F22" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -5862,7 +5859,7 @@
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>493</v>
@@ -5871,7 +5868,7 @@
         <v>1124</v>
       </c>
       <c r="F23" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5882,7 +5879,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>470</v>
@@ -5891,7 +5888,7 @@
         <v>1124</v>
       </c>
       <c r="F24" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -5902,7 +5899,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>457</v>
@@ -5911,7 +5908,7 @@
         <v>1124</v>
       </c>
       <c r="F25" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -5922,7 +5919,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>484</v>
@@ -5931,7 +5928,7 @@
         <v>1124</v>
       </c>
       <c r="F26" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -5942,7 +5939,7 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>478</v>
@@ -5951,7 +5948,7 @@
         <v>1124</v>
       </c>
       <c r="F27" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -5962,7 +5959,7 @@
         <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>533</v>
@@ -5971,7 +5968,7 @@
         <v>1123</v>
       </c>
       <c r="F28" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5982,7 +5979,7 @@
         <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>533</v>
@@ -5991,7 +5988,7 @@
         <v>1123</v>
       </c>
       <c r="F29" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -6002,7 +5999,7 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>466</v>
@@ -6011,7 +6008,7 @@
         <v>1124</v>
       </c>
       <c r="F30" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -6022,7 +6019,7 @@
         <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>468</v>
@@ -6031,7 +6028,7 @@
         <v>1123</v>
       </c>
       <c r="F31" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -6042,7 +6039,7 @@
         <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>491</v>
@@ -6051,7 +6048,7 @@
         <v>1124</v>
       </c>
       <c r="F32" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -6062,7 +6059,7 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>503</v>
@@ -6071,7 +6068,7 @@
         <v>1123</v>
       </c>
       <c r="F33" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6082,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>474</v>
@@ -6091,7 +6088,7 @@
         <v>1124</v>
       </c>
       <c r="F34" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -6102,7 +6099,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>466</v>
@@ -6111,7 +6108,7 @@
         <v>1124</v>
       </c>
       <c r="F35" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -6122,7 +6119,7 @@
         <v>573</v>
       </c>
       <c r="C36" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>555</v>
@@ -6131,7 +6128,7 @@
         <v>1124</v>
       </c>
       <c r="F36" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -6142,7 +6139,7 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>480</v>
@@ -6151,7 +6148,7 @@
         <v>1123</v>
       </c>
       <c r="F37" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6162,7 +6159,7 @@
         <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>551</v>
@@ -6171,7 +6168,7 @@
         <v>1124</v>
       </c>
       <c r="F38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -6182,7 +6179,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>460</v>
@@ -6191,7 +6188,7 @@
         <v>1123</v>
       </c>
       <c r="F39" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -6202,7 +6199,7 @@
         <v>575</v>
       </c>
       <c r="C40" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>509</v>
@@ -6211,7 +6208,7 @@
         <v>1123</v>
       </c>
       <c r="F40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -6222,7 +6219,7 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>511</v>
@@ -6231,7 +6228,7 @@
         <v>1123</v>
       </c>
       <c r="F41" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -6242,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>470</v>
@@ -6251,7 +6248,7 @@
         <v>1124</v>
       </c>
       <c r="F42" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -6262,7 +6259,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>530</v>
@@ -6271,7 +6268,7 @@
         <v>1124</v>
       </c>
       <c r="F43" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -6282,7 +6279,7 @@
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>527</v>
@@ -6291,7 +6288,7 @@
         <v>1124</v>
       </c>
       <c r="F44" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -6302,7 +6299,7 @@
         <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>565</v>
@@ -6311,7 +6308,7 @@
         <v>1124</v>
       </c>
       <c r="F45" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -6322,7 +6319,7 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>521</v>
@@ -6331,7 +6328,7 @@
         <v>1123</v>
       </c>
       <c r="F46" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -6342,7 +6339,7 @@
         <v>577</v>
       </c>
       <c r="C47" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>476</v>
@@ -6351,7 +6348,7 @@
         <v>1123</v>
       </c>
       <c r="F47" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -6362,7 +6359,7 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>464</v>
@@ -6371,7 +6368,7 @@
         <v>1124</v>
       </c>
       <c r="F48" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -6382,16 +6379,16 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>482</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="F49" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -6402,7 +6399,7 @@
         <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>543</v>
@@ -6411,7 +6408,7 @@
         <v>1123</v>
       </c>
       <c r="F50" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -6422,7 +6419,7 @@
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>527</v>
@@ -6431,18 +6428,18 @@
         <v>1124</v>
       </c>
       <c r="F51" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>524</v>
@@ -6451,7 +6448,7 @@
         <v>1123</v>
       </c>
       <c r="F52" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -6462,7 +6459,7 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>557</v>
@@ -6471,7 +6468,7 @@
         <v>1124</v>
       </c>
       <c r="F53" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -6482,7 +6479,7 @@
         <v>579</v>
       </c>
       <c r="C54" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>460</v>
@@ -6491,7 +6488,7 @@
         <v>1123</v>
       </c>
       <c r="F54" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -6502,7 +6499,7 @@
         <v>581</v>
       </c>
       <c r="C55" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>514</v>
@@ -6511,7 +6508,7 @@
         <v>1124</v>
       </c>
       <c r="F55" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -6522,7 +6519,7 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>546</v>
@@ -6531,7 +6528,7 @@
         <v>1123</v>
       </c>
       <c r="F56" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -6542,7 +6539,7 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>541</v>
@@ -6551,7 +6548,7 @@
         <v>1123</v>
       </c>
       <c r="F57" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -6562,7 +6559,7 @@
         <v>583</v>
       </c>
       <c r="C58" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>539</v>
@@ -6571,7 +6568,7 @@
         <v>1124</v>
       </c>
       <c r="F58" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -6582,7 +6579,7 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>488</v>
@@ -6591,7 +6588,7 @@
         <v>1124</v>
       </c>
       <c r="F59" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -6602,7 +6599,7 @@
         <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>472</v>
@@ -6611,7 +6608,7 @@
         <v>1123</v>
       </c>
       <c r="F60" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -6622,7 +6619,7 @@
         <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>458</v>
@@ -6631,7 +6628,7 @@
         <v>1123</v>
       </c>
       <c r="F61" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -6642,7 +6639,7 @@
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>539</v>
@@ -6651,7 +6648,7 @@
         <v>1124</v>
       </c>
       <c r="F62" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -6662,7 +6659,7 @@
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>493</v>
@@ -6671,7 +6668,7 @@
         <v>1124</v>
       </c>
       <c r="F63" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -6682,7 +6679,7 @@
         <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>461</v>
@@ -6691,7 +6688,7 @@
         <v>1123</v>
       </c>
       <c r="F64" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -6702,7 +6699,7 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>518</v>
@@ -6711,7 +6708,7 @@
         <v>1123</v>
       </c>
       <c r="F65" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -6722,7 +6719,7 @@
         <v>1121</v>
       </c>
       <c r="C66" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>496</v>
@@ -6731,7 +6728,7 @@
         <v>1123</v>
       </c>
       <c r="F66" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -6742,7 +6739,7 @@
         <v>1110</v>
       </c>
       <c r="C67" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>468</v>
@@ -6751,7 +6748,7 @@
         <v>1123</v>
       </c>
       <c r="F67" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -6762,7 +6759,7 @@
         <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>488</v>
@@ -6771,7 +6768,7 @@
         <v>1124</v>
       </c>
       <c r="F68" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -6782,7 +6779,7 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>467</v>
@@ -6791,7 +6788,7 @@
         <v>1123</v>
       </c>
       <c r="F69" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -6802,7 +6799,7 @@
         <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>494</v>
@@ -6811,7 +6808,7 @@
         <v>1124</v>
       </c>
       <c r="F70" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -6822,7 +6819,7 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>567</v>
@@ -6831,7 +6828,7 @@
         <v>1123</v>
       </c>
       <c r="F71" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -6842,7 +6839,7 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>457</v>
@@ -6851,7 +6848,7 @@
         <v>1124</v>
       </c>
       <c r="F72" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -6862,7 +6859,7 @@
         <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>557</v>
@@ -6871,7 +6868,7 @@
         <v>1124</v>
       </c>
       <c r="F73" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -6882,7 +6879,7 @@
         <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>548</v>
@@ -6891,7 +6888,7 @@
         <v>1123</v>
       </c>
       <c r="F74" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -6902,7 +6899,7 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>498</v>
@@ -6911,7 +6908,7 @@
         <v>1124</v>
       </c>
       <c r="F75" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -6922,7 +6919,7 @@
         <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>520</v>
@@ -6931,7 +6928,7 @@
         <v>1124</v>
       </c>
       <c r="F76" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -6942,16 +6939,16 @@
         <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>524</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="F77" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -6962,7 +6959,7 @@
         <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>491</v>
@@ -6971,7 +6968,7 @@
         <v>1124</v>
       </c>
       <c r="F78" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -6982,7 +6979,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>511</v>
@@ -6991,7 +6988,7 @@
         <v>1123</v>
       </c>
       <c r="F79" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -7002,7 +6999,7 @@
         <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>503</v>
@@ -7011,7 +7008,7 @@
         <v>1123</v>
       </c>
       <c r="F80" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -7022,7 +7019,7 @@
         <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>520</v>
@@ -7031,7 +7028,7 @@
         <v>1124</v>
       </c>
       <c r="F81" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -7042,7 +7039,7 @@
         <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>474</v>
@@ -7051,7 +7048,7 @@
         <v>1124</v>
       </c>
       <c r="F82" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -7062,7 +7059,7 @@
         <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>480</v>
@@ -7071,7 +7068,7 @@
         <v>1123</v>
       </c>
       <c r="F83" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -7082,7 +7079,7 @@
         <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>504</v>
@@ -7091,7 +7088,7 @@
         <v>1124</v>
       </c>
       <c r="F84" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -7102,7 +7099,7 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>476</v>
@@ -7111,7 +7108,7 @@
         <v>1123</v>
       </c>
       <c r="F85" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -7122,7 +7119,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>543</v>
@@ -7131,7 +7128,7 @@
         <v>1123</v>
       </c>
       <c r="F86" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -7142,7 +7139,7 @@
         <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>467</v>
@@ -7151,7 +7148,7 @@
         <v>1123</v>
       </c>
       <c r="F87" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -7162,7 +7159,7 @@
         <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>493</v>
@@ -7171,7 +7168,7 @@
         <v>1124</v>
       </c>
       <c r="F88" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -7182,7 +7179,7 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>478</v>
@@ -7191,7 +7188,7 @@
         <v>1123</v>
       </c>
       <c r="F89" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -7202,7 +7199,7 @@
         <v>31</v>
       </c>
       <c r="C90" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>498</v>
@@ -7211,7 +7208,7 @@
         <v>1124</v>
       </c>
       <c r="F90" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -7222,7 +7219,7 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>500</v>
@@ -7231,7 +7228,7 @@
         <v>1124</v>
       </c>
       <c r="F91" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7242,7 +7239,7 @@
         <v>62</v>
       </c>
       <c r="C92" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>544</v>
@@ -7251,7 +7248,7 @@
         <v>1124</v>
       </c>
       <c r="F92" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -7262,7 +7259,7 @@
         <v>584</v>
       </c>
       <c r="C93" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>504</v>
@@ -7271,7 +7268,7 @@
         <v>1124</v>
       </c>
       <c r="F93" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -7282,7 +7279,7 @@
         <v>49</v>
       </c>
       <c r="C94" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>501</v>
@@ -7291,7 +7288,7 @@
         <v>1123</v>
       </c>
       <c r="F94" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -7302,7 +7299,7 @@
         <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>521</v>
@@ -7311,7 +7308,7 @@
         <v>1123</v>
       </c>
       <c r="F95" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -7322,7 +7319,7 @@
         <v>1120</v>
       </c>
       <c r="C96" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>496</v>
@@ -7331,7 +7328,7 @@
         <v>1123</v>
       </c>
       <c r="F96" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -7342,7 +7339,7 @@
         <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>541</v>
@@ -7351,7 +7348,7 @@
         <v>1123</v>
       </c>
       <c r="F97" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -7362,7 +7359,7 @@
         <v>67</v>
       </c>
       <c r="C98" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>567</v>
@@ -7371,7 +7368,7 @@
         <v>1123</v>
       </c>
       <c r="F98" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -7382,7 +7379,7 @@
         <v>29</v>
       </c>
       <c r="C99" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>530</v>
@@ -7391,7 +7388,7 @@
         <v>1124</v>
       </c>
       <c r="F99" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -7402,7 +7399,7 @@
         <v>69</v>
       </c>
       <c r="C100" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>458</v>
@@ -7411,7 +7408,7 @@
         <v>1123</v>
       </c>
       <c r="F100" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -7422,7 +7419,7 @@
         <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>507</v>
@@ -7431,7 +7428,7 @@
         <v>1124</v>
       </c>
       <c r="F101" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -7442,7 +7439,7 @@
         <v>170</v>
       </c>
       <c r="C102" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>500</v>
@@ -7451,7 +7448,7 @@
         <v>1123</v>
       </c>
       <c r="F102" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -7462,7 +7459,7 @@
         <v>264</v>
       </c>
       <c r="C103" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>504</v>
@@ -7471,7 +7468,7 @@
         <v>1124</v>
       </c>
       <c r="F103" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -7482,7 +7479,7 @@
         <v>181</v>
       </c>
       <c r="C104" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>468</v>
@@ -7491,7 +7488,7 @@
         <v>1123</v>
       </c>
       <c r="F104" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -7502,7 +7499,7 @@
         <v>174</v>
       </c>
       <c r="C105" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>496</v>
@@ -7511,7 +7508,7 @@
         <v>1124</v>
       </c>
       <c r="F105" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -7522,7 +7519,7 @@
         <v>411</v>
       </c>
       <c r="C106" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>484</v>
@@ -7531,7 +7528,7 @@
         <v>1123</v>
       </c>
       <c r="F106" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -7542,7 +7539,7 @@
         <v>218</v>
       </c>
       <c r="C107" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>548</v>
@@ -7551,7 +7548,7 @@
         <v>1124</v>
       </c>
       <c r="F107" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -7562,7 +7559,7 @@
         <v>130</v>
       </c>
       <c r="C108" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>470</v>
@@ -7571,7 +7568,7 @@
         <v>1124</v>
       </c>
       <c r="F108" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -7582,7 +7579,7 @@
         <v>149</v>
       </c>
       <c r="C109" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>484</v>
@@ -7591,7 +7588,7 @@
         <v>1124</v>
       </c>
       <c r="F109" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -7602,7 +7599,7 @@
         <v>898</v>
       </c>
       <c r="C110" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>541</v>
@@ -7611,7 +7608,7 @@
         <v>1123</v>
       </c>
       <c r="F110" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -7622,7 +7619,7 @@
         <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>466</v>
@@ -7631,7 +7628,7 @@
         <v>1123</v>
       </c>
       <c r="F111" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -7642,7 +7639,7 @@
         <v>373</v>
       </c>
       <c r="C112" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>484</v>
@@ -7651,7 +7648,7 @@
         <v>1124</v>
       </c>
       <c r="F112" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -7662,7 +7659,7 @@
         <v>399</v>
       </c>
       <c r="C113" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>491</v>
@@ -7671,7 +7668,7 @@
         <v>1124</v>
       </c>
       <c r="F113" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -7682,7 +7679,7 @@
         <v>447</v>
       </c>
       <c r="C114" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>507</v>
@@ -7691,7 +7688,7 @@
         <v>1124</v>
       </c>
       <c r="F114" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -7702,7 +7699,7 @@
         <v>97</v>
       </c>
       <c r="C115" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>494</v>
@@ -7711,7 +7708,7 @@
         <v>1124</v>
       </c>
       <c r="F115" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -7722,7 +7719,7 @@
         <v>147</v>
       </c>
       <c r="C116" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>507</v>
@@ -7731,7 +7728,7 @@
         <v>1124</v>
       </c>
       <c r="F116" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -7742,7 +7739,7 @@
         <v>202</v>
       </c>
       <c r="C117" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>488</v>
@@ -7751,7 +7748,7 @@
         <v>1124</v>
       </c>
       <c r="F117" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -7762,7 +7759,7 @@
         <v>152</v>
       </c>
       <c r="C118" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>468</v>
@@ -7771,7 +7768,7 @@
         <v>1123</v>
       </c>
       <c r="F118" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -7782,7 +7779,7 @@
         <v>332</v>
       </c>
       <c r="C119" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>468</v>
@@ -7791,7 +7788,7 @@
         <v>1123</v>
       </c>
       <c r="F119" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -7802,7 +7799,7 @@
         <v>367</v>
       </c>
       <c r="C120" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>494</v>
@@ -7811,7 +7808,7 @@
         <v>1123</v>
       </c>
       <c r="F120" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -7822,7 +7819,7 @@
         <v>901</v>
       </c>
       <c r="C121" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>458</v>
@@ -7831,7 +7828,7 @@
         <v>1124</v>
       </c>
       <c r="F121" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -7842,7 +7839,7 @@
         <v>185</v>
       </c>
       <c r="C122" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>468</v>
@@ -7851,7 +7848,7 @@
         <v>1123</v>
       </c>
       <c r="F122" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -7862,7 +7859,7 @@
         <v>388</v>
       </c>
       <c r="C123" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>467</v>
@@ -7871,7 +7868,7 @@
         <v>1124</v>
       </c>
       <c r="F123" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -7882,7 +7879,7 @@
         <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>521</v>
@@ -7891,7 +7888,7 @@
         <v>1123</v>
       </c>
       <c r="F124" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -7902,7 +7899,7 @@
         <v>902</v>
       </c>
       <c r="C125" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>527</v>
@@ -7911,7 +7908,7 @@
         <v>1124</v>
       </c>
       <c r="F125" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -7922,7 +7919,7 @@
         <v>394</v>
       </c>
       <c r="C126" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>476</v>
@@ -7931,7 +7928,7 @@
         <v>1124</v>
       </c>
       <c r="F126" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -7942,7 +7939,7 @@
         <v>312</v>
       </c>
       <c r="C127" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>520</v>
@@ -7951,7 +7948,7 @@
         <v>1124</v>
       </c>
       <c r="F127" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -7962,7 +7959,7 @@
         <v>250</v>
       </c>
       <c r="C128" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>496</v>
@@ -7971,7 +7968,7 @@
         <v>1123</v>
       </c>
       <c r="F128" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -7982,7 +7979,7 @@
         <v>455</v>
       </c>
       <c r="C129" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>500</v>
@@ -7991,7 +7988,7 @@
         <v>1124</v>
       </c>
       <c r="F129" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -8002,7 +7999,7 @@
         <v>298</v>
       </c>
       <c r="C130" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>458</v>
@@ -8011,7 +8008,7 @@
         <v>1123</v>
       </c>
       <c r="F130" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -8022,7 +8019,7 @@
         <v>396</v>
       </c>
       <c r="C131" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>462</v>
@@ -8031,7 +8028,7 @@
         <v>1123</v>
       </c>
       <c r="F131" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -8042,7 +8039,7 @@
         <v>904</v>
       </c>
       <c r="C132" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>509</v>
@@ -8051,7 +8048,7 @@
         <v>1124</v>
       </c>
       <c r="F132" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -8062,7 +8059,7 @@
         <v>225</v>
       </c>
       <c r="C133" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>458</v>
@@ -8071,7 +8068,7 @@
         <v>1123</v>
       </c>
       <c r="F133" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -8082,7 +8079,7 @@
         <v>175</v>
       </c>
       <c r="C134" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>533</v>
@@ -8091,7 +8088,7 @@
         <v>1124</v>
       </c>
       <c r="F134" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -8102,7 +8099,7 @@
         <v>905</v>
       </c>
       <c r="C135" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>496</v>
@@ -8111,7 +8108,7 @@
         <v>1123</v>
       </c>
       <c r="F135" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -8122,7 +8119,7 @@
         <v>907</v>
       </c>
       <c r="C136" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>503</v>
@@ -8131,7 +8128,7 @@
         <v>1123</v>
       </c>
       <c r="F136" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -8142,7 +8139,7 @@
         <v>448</v>
       </c>
       <c r="C137" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>544</v>
@@ -8151,7 +8148,7 @@
         <v>1123</v>
       </c>
       <c r="F137" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -8162,7 +8159,7 @@
         <v>305</v>
       </c>
       <c r="C138" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>484</v>
@@ -8171,7 +8168,7 @@
         <v>1124</v>
       </c>
       <c r="F138" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -8182,7 +8179,7 @@
         <v>241</v>
       </c>
       <c r="C139" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>504</v>
@@ -8191,7 +8188,7 @@
         <v>1124</v>
       </c>
       <c r="F139" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -8202,7 +8199,7 @@
         <v>157</v>
       </c>
       <c r="C140" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>501</v>
@@ -8211,7 +8208,7 @@
         <v>1123</v>
       </c>
       <c r="F140" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -8222,7 +8219,7 @@
         <v>365</v>
       </c>
       <c r="C141" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>468</v>
@@ -8231,7 +8228,7 @@
         <v>1123</v>
       </c>
       <c r="F141" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -8242,7 +8239,7 @@
         <v>273</v>
       </c>
       <c r="C142" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>520</v>
@@ -8251,7 +8248,7 @@
         <v>1124</v>
       </c>
       <c r="F142" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -8262,7 +8259,7 @@
         <v>371</v>
       </c>
       <c r="C143" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>509</v>
@@ -8271,7 +8268,7 @@
         <v>1124</v>
       </c>
       <c r="F143" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -8282,7 +8279,7 @@
         <v>238</v>
       </c>
       <c r="C144" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>507</v>
@@ -8291,7 +8288,7 @@
         <v>1124</v>
       </c>
       <c r="F144" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -8302,7 +8299,7 @@
         <v>397</v>
       </c>
       <c r="C145" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>500</v>
@@ -8311,7 +8308,7 @@
         <v>1124</v>
       </c>
       <c r="F145" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -8322,7 +8319,7 @@
         <v>403</v>
       </c>
       <c r="C146" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>555</v>
@@ -8331,7 +8328,7 @@
         <v>1124</v>
       </c>
       <c r="F146" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -8342,7 +8339,7 @@
         <v>294</v>
       </c>
       <c r="C147" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>484</v>
@@ -8351,7 +8348,7 @@
         <v>1124</v>
       </c>
       <c r="F147" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -8362,7 +8359,7 @@
         <v>910</v>
       </c>
       <c r="C148" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>551</v>
@@ -8371,7 +8368,7 @@
         <v>1123</v>
       </c>
       <c r="F148" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -8382,7 +8379,7 @@
         <v>203</v>
       </c>
       <c r="C149" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>533</v>
@@ -8391,7 +8388,7 @@
         <v>1123</v>
       </c>
       <c r="F149" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -8402,7 +8399,7 @@
         <v>219</v>
       </c>
       <c r="C150" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>500</v>
@@ -8411,7 +8408,7 @@
         <v>1123</v>
       </c>
       <c r="F150" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -8422,7 +8419,7 @@
         <v>308</v>
       </c>
       <c r="C151" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>468</v>
@@ -8431,7 +8428,7 @@
         <v>1124</v>
       </c>
       <c r="F151" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -8442,7 +8439,7 @@
         <v>912</v>
       </c>
       <c r="C152" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>520</v>
@@ -8451,7 +8448,7 @@
         <v>1124</v>
       </c>
       <c r="F152" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -8462,7 +8459,7 @@
         <v>148</v>
       </c>
       <c r="C153" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>468</v>
@@ -8471,7 +8468,7 @@
         <v>1123</v>
       </c>
       <c r="F153" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -8482,7 +8479,7 @@
         <v>364</v>
       </c>
       <c r="C154" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>468</v>
@@ -8491,7 +8488,7 @@
         <v>1123</v>
       </c>
       <c r="F154" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -8502,7 +8499,7 @@
         <v>914</v>
       </c>
       <c r="C155" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>504</v>
@@ -8511,7 +8508,7 @@
         <v>1124</v>
       </c>
       <c r="F155" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -8522,7 +8519,7 @@
         <v>232</v>
       </c>
       <c r="C156" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>507</v>
@@ -8531,7 +8528,7 @@
         <v>1123</v>
       </c>
       <c r="F156" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -8542,7 +8539,7 @@
         <v>379</v>
       </c>
       <c r="C157" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>496</v>
@@ -8551,7 +8548,7 @@
         <v>1124</v>
       </c>
       <c r="F157" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -8562,7 +8559,7 @@
         <v>100</v>
       </c>
       <c r="C158" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>484</v>
@@ -8571,7 +8568,7 @@
         <v>1124</v>
       </c>
       <c r="F158" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -8582,7 +8579,7 @@
         <v>227</v>
       </c>
       <c r="C159" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>544</v>
@@ -8591,7 +8588,7 @@
         <v>1123</v>
       </c>
       <c r="F159" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -8602,7 +8599,7 @@
         <v>104</v>
       </c>
       <c r="C160" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>511</v>
@@ -8611,7 +8608,7 @@
         <v>1123</v>
       </c>
       <c r="F160" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -8622,7 +8619,7 @@
         <v>108</v>
       </c>
       <c r="C161" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>533</v>
@@ -8631,7 +8628,7 @@
         <v>1123</v>
       </c>
       <c r="F161" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -8642,7 +8639,7 @@
         <v>369</v>
       </c>
       <c r="C162" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>520</v>
@@ -8651,7 +8648,7 @@
         <v>1123</v>
       </c>
       <c r="F162" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -8662,7 +8659,7 @@
         <v>324</v>
       </c>
       <c r="C163" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>484</v>
@@ -8671,7 +8668,7 @@
         <v>1123</v>
       </c>
       <c r="F163" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -8682,7 +8679,7 @@
         <v>916</v>
       </c>
       <c r="C164" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>500</v>
@@ -8691,7 +8688,7 @@
         <v>1124</v>
       </c>
       <c r="F164" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -8702,7 +8699,7 @@
         <v>242</v>
       </c>
       <c r="C165" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>494</v>
@@ -8711,7 +8708,7 @@
         <v>1124</v>
       </c>
       <c r="F165" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -8722,7 +8719,7 @@
         <v>395</v>
       </c>
       <c r="C166" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>514</v>
@@ -8731,7 +8728,7 @@
         <v>1124</v>
       </c>
       <c r="F166" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -8742,7 +8739,7 @@
         <v>320</v>
       </c>
       <c r="C167" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>468</v>
@@ -8751,7 +8748,7 @@
         <v>1123</v>
       </c>
       <c r="F167" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -8762,7 +8759,7 @@
         <v>221</v>
       </c>
       <c r="C168" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>567</v>
@@ -8771,7 +8768,7 @@
         <v>1123</v>
       </c>
       <c r="F168" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -8782,7 +8779,7 @@
         <v>163</v>
       </c>
       <c r="C169" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>541</v>
@@ -8791,7 +8788,7 @@
         <v>1123</v>
       </c>
       <c r="F169" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -8802,7 +8799,7 @@
         <v>246</v>
       </c>
       <c r="C170" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>503</v>
@@ -8811,7 +8808,7 @@
         <v>1123</v>
       </c>
       <c r="F170" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -8822,7 +8819,7 @@
         <v>318</v>
       </c>
       <c r="C171" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>551</v>
@@ -8831,7 +8828,7 @@
         <v>1123</v>
       </c>
       <c r="F171" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -8842,7 +8839,7 @@
         <v>116</v>
       </c>
       <c r="C172" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>521</v>
@@ -8851,7 +8848,7 @@
         <v>1124</v>
       </c>
       <c r="F172" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -8862,7 +8859,7 @@
         <v>111</v>
       </c>
       <c r="C173" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>484</v>
@@ -8871,7 +8868,7 @@
         <v>1124</v>
       </c>
       <c r="F173" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -8882,7 +8879,7 @@
         <v>231</v>
       </c>
       <c r="C174" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>474</v>
@@ -8891,7 +8888,7 @@
         <v>1123</v>
       </c>
       <c r="F174" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -8899,7 +8896,7 @@
         <v>917</v>
       </c>
       <c r="C175" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>496</v>
@@ -8908,7 +8905,7 @@
         <v>1124</v>
       </c>
       <c r="F175" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -8919,7 +8916,7 @@
         <v>256</v>
       </c>
       <c r="C176" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>555</v>
@@ -8928,7 +8925,7 @@
         <v>1123</v>
       </c>
       <c r="F176" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -8939,7 +8936,7 @@
         <v>278</v>
       </c>
       <c r="C177" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>527</v>
@@ -8948,7 +8945,7 @@
         <v>1124</v>
       </c>
       <c r="F177" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -8959,7 +8956,7 @@
         <v>919</v>
       </c>
       <c r="C178" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>488</v>
@@ -8968,7 +8965,7 @@
         <v>1124</v>
       </c>
       <c r="F178" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -8979,7 +8976,7 @@
         <v>423</v>
       </c>
       <c r="C179" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>521</v>
@@ -8988,7 +8985,7 @@
         <v>1123</v>
       </c>
       <c r="F179" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -8999,7 +8996,7 @@
         <v>276</v>
       </c>
       <c r="C180" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>555</v>
@@ -9008,7 +9005,7 @@
         <v>1123</v>
       </c>
       <c r="F180" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -9019,7 +9016,7 @@
         <v>145</v>
       </c>
       <c r="C181" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>468</v>
@@ -9028,7 +9025,7 @@
         <v>1123</v>
       </c>
       <c r="F181" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -9039,7 +9036,7 @@
         <v>335</v>
       </c>
       <c r="C182" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>468</v>
@@ -9048,7 +9045,7 @@
         <v>1123</v>
       </c>
       <c r="F182" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -9059,7 +9056,7 @@
         <v>425</v>
       </c>
       <c r="C183" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>461</v>
@@ -9068,7 +9065,7 @@
         <v>1123</v>
       </c>
       <c r="F183" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -9079,7 +9076,7 @@
         <v>416</v>
       </c>
       <c r="C184" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>543</v>
@@ -9088,7 +9085,7 @@
         <v>1123</v>
       </c>
       <c r="F184" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -9099,7 +9096,7 @@
         <v>325</v>
       </c>
       <c r="C185" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>516</v>
@@ -9108,7 +9105,7 @@
         <v>1124</v>
       </c>
       <c r="F185" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -9119,7 +9116,7 @@
         <v>137</v>
       </c>
       <c r="C186" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>484</v>
@@ -9128,7 +9125,7 @@
         <v>1124</v>
       </c>
       <c r="F186" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -9139,7 +9136,7 @@
         <v>146</v>
       </c>
       <c r="C187" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>520</v>
@@ -9148,7 +9145,7 @@
         <v>1123</v>
       </c>
       <c r="F187" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -9159,7 +9156,7 @@
         <v>415</v>
       </c>
       <c r="C188" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>509</v>
@@ -9168,7 +9165,7 @@
         <v>1123</v>
       </c>
       <c r="F188" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -9179,7 +9176,7 @@
         <v>321</v>
       </c>
       <c r="C189" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>484</v>
@@ -9188,7 +9185,7 @@
         <v>1123</v>
       </c>
       <c r="F189" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -9199,7 +9196,7 @@
         <v>401</v>
       </c>
       <c r="C190" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>557</v>
@@ -9208,7 +9205,7 @@
         <v>1124</v>
       </c>
       <c r="F190" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -9219,7 +9216,7 @@
         <v>433</v>
       </c>
       <c r="C191" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>539</v>
@@ -9228,7 +9225,7 @@
         <v>1123</v>
       </c>
       <c r="F191" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -9239,7 +9236,7 @@
         <v>383</v>
       </c>
       <c r="C192" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>494</v>
@@ -9248,7 +9245,7 @@
         <v>1124</v>
       </c>
       <c r="F192" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -9259,7 +9256,7 @@
         <v>228</v>
       </c>
       <c r="C193" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>533</v>
@@ -9268,7 +9265,7 @@
         <v>1123</v>
       </c>
       <c r="F193" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -9279,7 +9276,7 @@
         <v>188</v>
       </c>
       <c r="C194" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>533</v>
@@ -9288,7 +9285,7 @@
         <v>1124</v>
       </c>
       <c r="F194" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -9299,7 +9296,7 @@
         <v>348</v>
       </c>
       <c r="C195" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>544</v>
@@ -9308,7 +9305,7 @@
         <v>1123</v>
       </c>
       <c r="F195" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -9319,7 +9316,7 @@
         <v>337</v>
       </c>
       <c r="C196" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>458</v>
@@ -9328,7 +9325,7 @@
         <v>1123</v>
       </c>
       <c r="F196" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -9339,7 +9336,7 @@
         <v>283</v>
       </c>
       <c r="C197" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>509</v>
@@ -9348,7 +9345,7 @@
         <v>1123</v>
       </c>
       <c r="F197" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -9359,7 +9356,7 @@
         <v>430</v>
       </c>
       <c r="C198" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>461</v>
@@ -9368,7 +9365,7 @@
         <v>1123</v>
       </c>
       <c r="F198" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -9379,7 +9376,7 @@
         <v>353</v>
       </c>
       <c r="C199" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>518</v>
@@ -9388,7 +9385,7 @@
         <v>1123</v>
       </c>
       <c r="F199" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -9399,7 +9396,7 @@
         <v>129</v>
       </c>
       <c r="C200" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>503</v>
@@ -9408,7 +9405,7 @@
         <v>1123</v>
       </c>
       <c r="F200" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -9419,7 +9416,7 @@
         <v>385</v>
       </c>
       <c r="C201" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>520</v>
@@ -9428,7 +9425,7 @@
         <v>1123</v>
       </c>
       <c r="F201" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -9439,7 +9436,7 @@
         <v>177</v>
       </c>
       <c r="C202" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>468</v>
@@ -9448,7 +9445,7 @@
         <v>1123</v>
       </c>
       <c r="F202" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -9459,7 +9456,7 @@
         <v>330</v>
       </c>
       <c r="C203" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>555</v>
@@ -9468,7 +9465,7 @@
         <v>1124</v>
       </c>
       <c r="F203" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -9479,7 +9476,7 @@
         <v>429</v>
       </c>
       <c r="C204" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>520</v>
@@ -9488,7 +9485,7 @@
         <v>1123</v>
       </c>
       <c r="F204" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -9499,7 +9496,7 @@
         <v>289</v>
       </c>
       <c r="C205" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>520</v>
@@ -9508,7 +9505,7 @@
         <v>1124</v>
       </c>
       <c r="F205" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -9519,7 +9516,7 @@
         <v>378</v>
       </c>
       <c r="C206" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>467</v>
@@ -9528,7 +9525,7 @@
         <v>1123</v>
       </c>
       <c r="F206" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -9539,7 +9536,7 @@
         <v>431</v>
       </c>
       <c r="C207" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>484</v>
@@ -9548,7 +9545,7 @@
         <v>1123</v>
       </c>
       <c r="F207" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -9559,7 +9556,7 @@
         <v>921</v>
       </c>
       <c r="C208" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>520</v>
@@ -9568,7 +9565,7 @@
         <v>1124</v>
       </c>
       <c r="F208" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -9579,7 +9576,7 @@
         <v>290</v>
       </c>
       <c r="C209" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>544</v>
@@ -9588,7 +9585,7 @@
         <v>1123</v>
       </c>
       <c r="F209" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -9599,7 +9596,7 @@
         <v>244</v>
       </c>
       <c r="C210" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>474</v>
@@ -9608,7 +9605,7 @@
         <v>1124</v>
       </c>
       <c r="F210" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -9619,7 +9616,7 @@
         <v>144</v>
       </c>
       <c r="C211" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>520</v>
@@ -9628,7 +9625,7 @@
         <v>1124</v>
       </c>
       <c r="F211" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -9639,7 +9636,7 @@
         <v>169</v>
       </c>
       <c r="C212" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>543</v>
@@ -9648,7 +9645,7 @@
         <v>1124</v>
       </c>
       <c r="F212" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -9659,7 +9656,7 @@
         <v>409</v>
       </c>
       <c r="C213" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>484</v>
@@ -9668,7 +9665,7 @@
         <v>1123</v>
       </c>
       <c r="F213" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -9679,7 +9676,7 @@
         <v>336</v>
       </c>
       <c r="C214" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>468</v>
@@ -9688,7 +9685,7 @@
         <v>1123</v>
       </c>
       <c r="F214" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -9699,7 +9696,7 @@
         <v>153</v>
       </c>
       <c r="C215" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>503</v>
@@ -9708,7 +9705,7 @@
         <v>1123</v>
       </c>
       <c r="F215" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -9719,7 +9716,7 @@
         <v>160</v>
       </c>
       <c r="C216" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>539</v>
@@ -9728,7 +9725,7 @@
         <v>1124</v>
       </c>
       <c r="F216" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -9739,7 +9736,7 @@
         <v>267</v>
       </c>
       <c r="C217" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>544</v>
@@ -9748,7 +9745,7 @@
         <v>1123</v>
       </c>
       <c r="F217" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -9759,7 +9756,7 @@
         <v>924</v>
       </c>
       <c r="C218" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>484</v>
@@ -9768,7 +9765,7 @@
         <v>1124</v>
       </c>
       <c r="F218" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -9779,7 +9776,7 @@
         <v>925</v>
       </c>
       <c r="C219" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>466</v>
@@ -9788,7 +9785,7 @@
         <v>1124</v>
       </c>
       <c r="F219" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -9799,7 +9796,7 @@
         <v>139</v>
       </c>
       <c r="C220" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>496</v>
@@ -9808,7 +9805,7 @@
         <v>1124</v>
       </c>
       <c r="F220" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -9819,7 +9816,7 @@
         <v>928</v>
       </c>
       <c r="C221" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>543</v>
@@ -9828,7 +9825,7 @@
         <v>1124</v>
       </c>
       <c r="F221" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -9839,7 +9836,7 @@
         <v>929</v>
       </c>
       <c r="C222" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>565</v>
@@ -9848,7 +9845,7 @@
         <v>1124</v>
       </c>
       <c r="F222" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -9859,7 +9856,7 @@
         <v>150</v>
       </c>
       <c r="C223" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>544</v>
@@ -9868,7 +9865,7 @@
         <v>1124</v>
       </c>
       <c r="F223" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -9879,7 +9876,7 @@
         <v>239</v>
       </c>
       <c r="C224" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>555</v>
@@ -9888,7 +9885,7 @@
         <v>1124</v>
       </c>
       <c r="F224" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -9899,7 +9896,7 @@
         <v>410</v>
       </c>
       <c r="C225" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>484</v>
@@ -9908,7 +9905,7 @@
         <v>1123</v>
       </c>
       <c r="F225" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -9919,7 +9916,7 @@
         <v>271</v>
       </c>
       <c r="C226" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>491</v>
@@ -9928,7 +9925,7 @@
         <v>1124</v>
       </c>
       <c r="F226" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -9939,7 +9936,7 @@
         <v>201</v>
       </c>
       <c r="C227" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>533</v>
@@ -9948,7 +9945,7 @@
         <v>1123</v>
       </c>
       <c r="F227" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -9959,7 +9956,7 @@
         <v>299</v>
       </c>
       <c r="C228" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>500</v>
@@ -9968,7 +9965,7 @@
         <v>1124</v>
       </c>
       <c r="F228" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -9979,7 +9976,7 @@
         <v>200</v>
       </c>
       <c r="C229" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>520</v>
@@ -9988,7 +9985,7 @@
         <v>1123</v>
       </c>
       <c r="F229" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -9999,7 +9996,7 @@
         <v>931</v>
       </c>
       <c r="C230" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>520</v>
@@ -10008,7 +10005,7 @@
         <v>1124</v>
       </c>
       <c r="F230" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -10019,7 +10016,7 @@
         <v>269</v>
       </c>
       <c r="C231" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>494</v>
@@ -10028,7 +10025,7 @@
         <v>1123</v>
       </c>
       <c r="F231" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -10039,7 +10036,7 @@
         <v>412</v>
       </c>
       <c r="C232" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>457</v>
@@ -10048,7 +10045,7 @@
         <v>1124</v>
       </c>
       <c r="F232" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -10059,7 +10056,7 @@
         <v>156</v>
       </c>
       <c r="C233" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>520</v>
@@ -10068,7 +10065,7 @@
         <v>1124</v>
       </c>
       <c r="F233" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -10079,7 +10076,7 @@
         <v>390</v>
       </c>
       <c r="C234" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>565</v>
@@ -10088,7 +10085,7 @@
         <v>1124</v>
       </c>
       <c r="F234" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -10099,7 +10096,7 @@
         <v>176</v>
       </c>
       <c r="C235" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>476</v>
@@ -10108,7 +10105,7 @@
         <v>1123</v>
       </c>
       <c r="F235" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -10119,7 +10116,7 @@
         <v>426</v>
       </c>
       <c r="C236" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>468</v>
@@ -10128,7 +10125,7 @@
         <v>1123</v>
       </c>
       <c r="F236" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -10139,7 +10136,7 @@
         <v>934</v>
       </c>
       <c r="C237" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>503</v>
@@ -10148,7 +10145,7 @@
         <v>1124</v>
       </c>
       <c r="F237" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -10159,7 +10156,7 @@
         <v>107</v>
       </c>
       <c r="C238" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>533</v>
@@ -10168,7 +10165,7 @@
         <v>1123</v>
       </c>
       <c r="F238" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -10179,7 +10176,7 @@
         <v>936</v>
       </c>
       <c r="C239" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>468</v>
@@ -10188,7 +10185,7 @@
         <v>1124</v>
       </c>
       <c r="F239" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -10199,7 +10196,7 @@
         <v>436</v>
       </c>
       <c r="C240" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>484</v>
@@ -10208,7 +10205,7 @@
         <v>1123</v>
       </c>
       <c r="F240" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -10219,7 +10216,7 @@
         <v>329</v>
       </c>
       <c r="C241" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>494</v>
@@ -10228,7 +10225,7 @@
         <v>1124</v>
       </c>
       <c r="F241" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -10239,7 +10236,7 @@
         <v>938</v>
       </c>
       <c r="C242" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>520</v>
@@ -10248,7 +10245,7 @@
         <v>1124</v>
       </c>
       <c r="F242" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -10259,7 +10256,7 @@
         <v>275</v>
       </c>
       <c r="C243" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>484</v>
@@ -10268,7 +10265,7 @@
         <v>1124</v>
       </c>
       <c r="F243" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -10279,7 +10276,7 @@
         <v>438</v>
       </c>
       <c r="C244" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>482</v>
@@ -10288,7 +10285,7 @@
         <v>1123</v>
       </c>
       <c r="F244" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -10299,7 +10296,7 @@
         <v>164</v>
       </c>
       <c r="C245" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>468</v>
@@ -10308,7 +10305,7 @@
         <v>1123</v>
       </c>
       <c r="F245" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -10319,7 +10316,7 @@
         <v>940</v>
       </c>
       <c r="C246" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>484</v>
@@ -10328,7 +10325,7 @@
         <v>1124</v>
       </c>
       <c r="F246" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -10339,7 +10336,7 @@
         <v>94</v>
       </c>
       <c r="C247" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>599</v>
@@ -10348,7 +10345,7 @@
         <v>1124</v>
       </c>
       <c r="F247" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -10359,7 +10356,7 @@
         <v>112</v>
       </c>
       <c r="C248" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>494</v>
@@ -10368,7 +10365,7 @@
         <v>1124</v>
       </c>
       <c r="F248" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -10379,7 +10376,7 @@
         <v>155</v>
       </c>
       <c r="C249" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>484</v>
@@ -10388,7 +10385,7 @@
         <v>1123</v>
       </c>
       <c r="F249" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -10399,7 +10396,7 @@
         <v>945</v>
       </c>
       <c r="C250" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>521</v>
@@ -10408,7 +10405,7 @@
         <v>1124</v>
       </c>
       <c r="F250" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -10416,7 +10413,7 @@
         <v>944</v>
       </c>
       <c r="C251" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>484</v>
@@ -10425,7 +10422,7 @@
         <v>1124</v>
       </c>
       <c r="F251" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -10436,7 +10433,7 @@
         <v>333</v>
       </c>
       <c r="C252" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>476</v>
@@ -10445,7 +10442,7 @@
         <v>1124</v>
       </c>
       <c r="F252" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -10456,7 +10453,7 @@
         <v>143</v>
       </c>
       <c r="C253" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>472</v>
@@ -10465,7 +10462,7 @@
         <v>1123</v>
       </c>
       <c r="F253" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -10476,7 +10473,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>484</v>
@@ -10485,7 +10482,7 @@
         <v>1124</v>
       </c>
       <c r="F254" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -10496,7 +10493,7 @@
         <v>374</v>
       </c>
       <c r="C255" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>464</v>
@@ -10505,7 +10502,7 @@
         <v>1124</v>
       </c>
       <c r="F255" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -10516,7 +10513,7 @@
         <v>284</v>
       </c>
       <c r="C256" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>551</v>
@@ -10525,7 +10522,7 @@
         <v>1124</v>
       </c>
       <c r="F256" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -10536,7 +10533,7 @@
         <v>254</v>
       </c>
       <c r="C257" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>484</v>
@@ -10545,7 +10542,7 @@
         <v>1123</v>
       </c>
       <c r="F257" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -10556,7 +10553,7 @@
         <v>432</v>
       </c>
       <c r="C258" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>555</v>
@@ -10565,7 +10562,7 @@
         <v>1124</v>
       </c>
       <c r="F258" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -10576,7 +10573,7 @@
         <v>947</v>
       </c>
       <c r="C259" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>496</v>
@@ -10585,7 +10582,7 @@
         <v>1124</v>
       </c>
       <c r="F259" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -10596,7 +10593,7 @@
         <v>327</v>
       </c>
       <c r="C260" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>521</v>
@@ -10605,7 +10602,7 @@
         <v>1124</v>
       </c>
       <c r="F260" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -10616,7 +10613,7 @@
         <v>313</v>
       </c>
       <c r="C261" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>476</v>
@@ -10625,7 +10622,7 @@
         <v>1123</v>
       </c>
       <c r="F261" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -10636,7 +10633,7 @@
         <v>380</v>
       </c>
       <c r="C262" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>565</v>
@@ -10645,7 +10642,7 @@
         <v>1124</v>
       </c>
       <c r="F262" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -10656,7 +10653,7 @@
         <v>441</v>
       </c>
       <c r="C263" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>530</v>
@@ -10665,7 +10662,7 @@
         <v>1124</v>
       </c>
       <c r="F263" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -10676,7 +10673,7 @@
         <v>162</v>
       </c>
       <c r="C264" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>488</v>
@@ -10685,7 +10682,7 @@
         <v>1124</v>
       </c>
       <c r="F264" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -10696,7 +10693,7 @@
         <v>99</v>
       </c>
       <c r="C265" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>460</v>
@@ -10705,7 +10702,7 @@
         <v>1123</v>
       </c>
       <c r="F265" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -10716,7 +10713,7 @@
         <v>450</v>
       </c>
       <c r="C266" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>543</v>
@@ -10725,7 +10722,7 @@
         <v>1124</v>
       </c>
       <c r="F266" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -10736,7 +10733,7 @@
         <v>134</v>
       </c>
       <c r="C267" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>468</v>
@@ -10745,7 +10742,7 @@
         <v>1123</v>
       </c>
       <c r="F267" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -10756,7 +10753,7 @@
         <v>186</v>
       </c>
       <c r="C268" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>501</v>
@@ -10765,7 +10762,7 @@
         <v>1124</v>
       </c>
       <c r="F268" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -10776,7 +10773,7 @@
         <v>949</v>
       </c>
       <c r="C269" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>555</v>
@@ -10785,7 +10782,7 @@
         <v>1124</v>
       </c>
       <c r="F269" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -10796,7 +10793,7 @@
         <v>331</v>
       </c>
       <c r="C270" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>551</v>
@@ -10805,7 +10802,7 @@
         <v>1124</v>
       </c>
       <c r="F270" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -10816,7 +10813,7 @@
         <v>165</v>
       </c>
       <c r="C271" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>520</v>
@@ -10825,7 +10822,7 @@
         <v>1123</v>
       </c>
       <c r="F271" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -10836,7 +10833,7 @@
         <v>443</v>
       </c>
       <c r="C272" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>461</v>
@@ -10845,7 +10842,7 @@
         <v>1123</v>
       </c>
       <c r="F272" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -10856,7 +10853,7 @@
         <v>406</v>
       </c>
       <c r="C273" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>527</v>
@@ -10865,7 +10862,7 @@
         <v>1124</v>
       </c>
       <c r="F273" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -10876,7 +10873,7 @@
         <v>951</v>
       </c>
       <c r="C274" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>460</v>
@@ -10885,7 +10882,7 @@
         <v>1124</v>
       </c>
       <c r="F274" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -10896,7 +10893,7 @@
         <v>248</v>
       </c>
       <c r="C275" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>518</v>
@@ -10905,7 +10902,7 @@
         <v>1124</v>
       </c>
       <c r="F275" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -10916,7 +10913,7 @@
         <v>180</v>
       </c>
       <c r="C276" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>496</v>
@@ -10925,7 +10922,7 @@
         <v>1124</v>
       </c>
       <c r="F276" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -10936,7 +10933,7 @@
         <v>417</v>
       </c>
       <c r="C277" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>503</v>
@@ -10945,7 +10942,7 @@
         <v>1123</v>
       </c>
       <c r="F277" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -10956,7 +10953,7 @@
         <v>159</v>
       </c>
       <c r="C278" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>464</v>
@@ -10965,7 +10962,7 @@
         <v>1124</v>
       </c>
       <c r="F278" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -10976,7 +10973,7 @@
         <v>172</v>
       </c>
       <c r="C279" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>516</v>
@@ -10985,7 +10982,7 @@
         <v>1124</v>
       </c>
       <c r="F279" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -10996,7 +10993,7 @@
         <v>1074</v>
       </c>
       <c r="C280" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>461</v>
@@ -11005,7 +11002,7 @@
         <v>1123</v>
       </c>
       <c r="F280" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -11016,7 +11013,7 @@
         <v>954</v>
       </c>
       <c r="C281" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>466</v>
@@ -11025,7 +11022,7 @@
         <v>1124</v>
       </c>
       <c r="F281" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -11036,7 +11033,7 @@
         <v>141</v>
       </c>
       <c r="C282" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>507</v>
@@ -11045,7 +11042,7 @@
         <v>1124</v>
       </c>
       <c r="F282" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -11056,7 +11053,7 @@
         <v>344</v>
       </c>
       <c r="C283" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>548</v>
@@ -11065,7 +11062,7 @@
         <v>1123</v>
       </c>
       <c r="F283" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -11076,7 +11073,7 @@
         <v>404</v>
       </c>
       <c r="C284" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>544</v>
@@ -11085,7 +11082,7 @@
         <v>1123</v>
       </c>
       <c r="F284" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -11096,7 +11093,7 @@
         <v>307</v>
       </c>
       <c r="C285" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>501</v>
@@ -11105,7 +11102,7 @@
         <v>1123</v>
       </c>
       <c r="F285" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -11116,7 +11113,7 @@
         <v>350</v>
       </c>
       <c r="C286" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>500</v>
@@ -11125,7 +11122,7 @@
         <v>1124</v>
       </c>
       <c r="F286" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -11136,7 +11133,7 @@
         <v>358</v>
       </c>
       <c r="C287" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>468</v>
@@ -11145,7 +11142,7 @@
         <v>1123</v>
       </c>
       <c r="F287" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -11156,7 +11153,7 @@
         <v>326</v>
       </c>
       <c r="C288" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>467</v>
@@ -11165,7 +11162,7 @@
         <v>1124</v>
       </c>
       <c r="F288" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -11176,7 +11173,7 @@
         <v>956</v>
       </c>
       <c r="C289" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>468</v>
@@ -11185,7 +11182,7 @@
         <v>1124</v>
       </c>
       <c r="F289" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
@@ -11196,7 +11193,7 @@
         <v>265</v>
       </c>
       <c r="C290" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>484</v>
@@ -11205,7 +11202,7 @@
         <v>1123</v>
       </c>
       <c r="F290" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -11216,7 +11213,7 @@
         <v>958</v>
       </c>
       <c r="C291" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>484</v>
@@ -11225,7 +11222,7 @@
         <v>1124</v>
       </c>
       <c r="F291" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -11236,7 +11233,7 @@
         <v>961</v>
       </c>
       <c r="C292" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>503</v>
@@ -11245,7 +11242,7 @@
         <v>1124</v>
       </c>
       <c r="F292" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -11256,7 +11253,7 @@
         <v>962</v>
       </c>
       <c r="C293" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>468</v>
@@ -11265,7 +11262,7 @@
         <v>1123</v>
       </c>
       <c r="F293" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -11276,7 +11273,7 @@
         <v>389</v>
       </c>
       <c r="C294" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>518</v>
@@ -11285,7 +11282,7 @@
         <v>1123</v>
       </c>
       <c r="F294" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -11296,7 +11293,7 @@
         <v>346</v>
       </c>
       <c r="C295" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>503</v>
@@ -11305,7 +11302,7 @@
         <v>1123</v>
       </c>
       <c r="F295" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -11316,7 +11313,7 @@
         <v>322</v>
       </c>
       <c r="C296" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>494</v>
@@ -11325,7 +11322,7 @@
         <v>1124</v>
       </c>
       <c r="F296" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
@@ -11336,7 +11333,7 @@
         <v>408</v>
       </c>
       <c r="C297" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>498</v>
@@ -11345,7 +11342,7 @@
         <v>1124</v>
       </c>
       <c r="F297" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
@@ -11356,7 +11353,7 @@
         <v>319</v>
       </c>
       <c r="C298" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D298" s="4" t="s">
         <v>484</v>
@@ -11365,7 +11362,7 @@
         <v>1123</v>
       </c>
       <c r="F298" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -11376,7 +11373,7 @@
         <v>310</v>
       </c>
       <c r="C299" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>496</v>
@@ -11385,7 +11382,7 @@
         <v>1123</v>
       </c>
       <c r="F299" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -11396,7 +11393,7 @@
         <v>400</v>
       </c>
       <c r="C300" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>464</v>
@@ -11405,7 +11402,7 @@
         <v>1124</v>
       </c>
       <c r="F300" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -11416,7 +11413,7 @@
         <v>964</v>
       </c>
       <c r="C301" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>503</v>
@@ -11425,7 +11422,7 @@
         <v>1123</v>
       </c>
       <c r="F301" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -11436,7 +11433,7 @@
         <v>301</v>
       </c>
       <c r="C302" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>494</v>
@@ -11445,7 +11442,7 @@
         <v>1124</v>
       </c>
       <c r="F302" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -11456,7 +11453,7 @@
         <v>352</v>
       </c>
       <c r="C303" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>494</v>
@@ -11465,7 +11462,7 @@
         <v>1124</v>
       </c>
       <c r="F303" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -11476,7 +11473,7 @@
         <v>105</v>
       </c>
       <c r="C304" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>544</v>
@@ -11485,7 +11482,7 @@
         <v>1124</v>
       </c>
       <c r="F304" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -11496,7 +11493,7 @@
         <v>966</v>
       </c>
       <c r="C305" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>511</v>
@@ -11505,7 +11502,7 @@
         <v>1123</v>
       </c>
       <c r="F305" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
@@ -11516,7 +11513,7 @@
         <v>226</v>
       </c>
       <c r="C306" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>494</v>
@@ -11525,7 +11522,7 @@
         <v>1123</v>
       </c>
       <c r="F306" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -11536,7 +11533,7 @@
         <v>377</v>
       </c>
       <c r="C307" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>503</v>
@@ -11545,7 +11542,7 @@
         <v>1124</v>
       </c>
       <c r="F307" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
@@ -11556,7 +11553,7 @@
         <v>235</v>
       </c>
       <c r="C308" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>541</v>
@@ -11565,7 +11562,7 @@
         <v>1123</v>
       </c>
       <c r="F308" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
@@ -11576,7 +11573,7 @@
         <v>102</v>
       </c>
       <c r="C309" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>544</v>
@@ -11585,7 +11582,7 @@
         <v>1124</v>
       </c>
       <c r="F309" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
@@ -11596,7 +11593,7 @@
         <v>230</v>
       </c>
       <c r="C310" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>544</v>
@@ -11605,7 +11602,7 @@
         <v>1124</v>
       </c>
       <c r="F310" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
@@ -11616,7 +11613,7 @@
         <v>366</v>
       </c>
       <c r="C311" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>533</v>
@@ -11625,7 +11622,7 @@
         <v>1123</v>
       </c>
       <c r="F311" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
@@ -11636,7 +11633,7 @@
         <v>183</v>
       </c>
       <c r="C312" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>530</v>
@@ -11645,7 +11642,7 @@
         <v>1124</v>
       </c>
       <c r="F312" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
@@ -11656,7 +11653,7 @@
         <v>393</v>
       </c>
       <c r="C313" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>468</v>
@@ -11665,7 +11662,7 @@
         <v>1123</v>
       </c>
       <c r="F313" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
@@ -11676,7 +11673,7 @@
         <v>354</v>
       </c>
       <c r="C314" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>467</v>
@@ -11685,7 +11682,7 @@
         <v>1123</v>
       </c>
       <c r="F314" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -11696,7 +11693,7 @@
         <v>356</v>
       </c>
       <c r="C315" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>518</v>
@@ -11705,7 +11702,7 @@
         <v>1123</v>
       </c>
       <c r="F315" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -11716,7 +11713,7 @@
         <v>123</v>
       </c>
       <c r="C316" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>472</v>
@@ -11725,7 +11722,7 @@
         <v>1123</v>
       </c>
       <c r="F316" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
@@ -11736,7 +11733,7 @@
         <v>968</v>
       </c>
       <c r="C317" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>468</v>
@@ -11745,7 +11742,7 @@
         <v>1124</v>
       </c>
       <c r="F317" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -11756,7 +11753,7 @@
         <v>268</v>
       </c>
       <c r="C318" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>565</v>
@@ -11765,7 +11762,7 @@
         <v>1123</v>
       </c>
       <c r="F318" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
@@ -11776,7 +11773,7 @@
         <v>323</v>
       </c>
       <c r="C319" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>533</v>
@@ -11785,7 +11782,7 @@
         <v>1124</v>
       </c>
       <c r="F319" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
@@ -11796,7 +11793,7 @@
         <v>440</v>
       </c>
       <c r="C320" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>476</v>
@@ -11805,7 +11802,7 @@
         <v>1123</v>
       </c>
       <c r="F320" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
@@ -11816,7 +11813,7 @@
         <v>142</v>
       </c>
       <c r="C321" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>533</v>
@@ -11825,7 +11822,7 @@
         <v>1123</v>
       </c>
       <c r="F321" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
@@ -11836,7 +11833,7 @@
         <v>194</v>
       </c>
       <c r="C322" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>480</v>
@@ -11845,7 +11842,7 @@
         <v>1123</v>
       </c>
       <c r="F322" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -11856,7 +11853,7 @@
         <v>391</v>
       </c>
       <c r="C323" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>555</v>
@@ -11865,7 +11862,7 @@
         <v>1124</v>
       </c>
       <c r="F323" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -11876,7 +11873,7 @@
         <v>382</v>
       </c>
       <c r="C324" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>533</v>
@@ -11885,7 +11882,7 @@
         <v>1124</v>
       </c>
       <c r="F324" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -11896,7 +11893,7 @@
         <v>196</v>
       </c>
       <c r="C325" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>468</v>
@@ -11905,7 +11902,7 @@
         <v>1124</v>
       </c>
       <c r="F325" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -11916,7 +11913,7 @@
         <v>402</v>
       </c>
       <c r="C326" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>544</v>
@@ -11925,7 +11922,7 @@
         <v>1123</v>
       </c>
       <c r="F326" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -11936,7 +11933,7 @@
         <v>349</v>
       </c>
       <c r="C327" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>509</v>
@@ -11945,7 +11942,7 @@
         <v>1124</v>
       </c>
       <c r="F327" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -11956,7 +11953,7 @@
         <v>272</v>
       </c>
       <c r="C328" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>567</v>
@@ -11965,7 +11962,7 @@
         <v>1123</v>
       </c>
       <c r="F328" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
@@ -11976,7 +11973,7 @@
         <v>345</v>
       </c>
       <c r="C329" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>518</v>
@@ -11985,7 +11982,7 @@
         <v>1123</v>
       </c>
       <c r="F329" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
@@ -11996,7 +11993,7 @@
         <v>421</v>
       </c>
       <c r="C330" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>461</v>
@@ -12005,7 +12002,7 @@
         <v>1123</v>
       </c>
       <c r="F330" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
@@ -12016,7 +12013,7 @@
         <v>296</v>
       </c>
       <c r="C331" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>494</v>
@@ -12025,7 +12022,7 @@
         <v>1124</v>
       </c>
       <c r="F331" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
@@ -12036,7 +12033,7 @@
         <v>970</v>
       </c>
       <c r="C332" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>539</v>
@@ -12045,7 +12042,7 @@
         <v>1124</v>
       </c>
       <c r="F332" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
@@ -12056,7 +12053,7 @@
         <v>168</v>
       </c>
       <c r="C333" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>467</v>
@@ -12065,7 +12062,7 @@
         <v>1123</v>
       </c>
       <c r="F333" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
@@ -12076,7 +12073,7 @@
         <v>154</v>
       </c>
       <c r="C334" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D334" s="4" t="s">
         <v>520</v>
@@ -12085,7 +12082,7 @@
         <v>1123</v>
       </c>
       <c r="F334" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
@@ -12096,7 +12093,7 @@
         <v>249</v>
       </c>
       <c r="C335" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D335" s="4" t="s">
         <v>468</v>
@@ -12105,7 +12102,7 @@
         <v>1123</v>
       </c>
       <c r="F335" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
@@ -12116,7 +12113,7 @@
         <v>414</v>
       </c>
       <c r="C336" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>548</v>
@@ -12125,7 +12122,7 @@
         <v>1123</v>
       </c>
       <c r="F336" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -12136,7 +12133,7 @@
         <v>972</v>
       </c>
       <c r="C337" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>460</v>
@@ -12145,7 +12142,7 @@
         <v>1123</v>
       </c>
       <c r="F337" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
@@ -12156,7 +12153,7 @@
         <v>109</v>
       </c>
       <c r="C338" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>476</v>
@@ -12165,7 +12162,7 @@
         <v>1124</v>
       </c>
       <c r="F338" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
@@ -12176,7 +12173,7 @@
         <v>126</v>
       </c>
       <c r="C339" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>467</v>
@@ -12185,7 +12182,7 @@
         <v>1123</v>
       </c>
       <c r="F339" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
@@ -12196,7 +12193,7 @@
         <v>407</v>
       </c>
       <c r="C340" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>468</v>
@@ -12205,7 +12202,7 @@
         <v>1123</v>
       </c>
       <c r="F340" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
@@ -12216,7 +12213,7 @@
         <v>182</v>
       </c>
       <c r="C341" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>468</v>
@@ -12225,7 +12222,7 @@
         <v>1123</v>
       </c>
       <c r="F341" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -12236,7 +12233,7 @@
         <v>253</v>
       </c>
       <c r="C342" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>468</v>
@@ -12245,7 +12242,7 @@
         <v>1123</v>
       </c>
       <c r="F342" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
@@ -12256,7 +12253,7 @@
         <v>209</v>
       </c>
       <c r="C343" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>551</v>
@@ -12265,7 +12262,7 @@
         <v>1124</v>
       </c>
       <c r="F343" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
@@ -12276,7 +12273,7 @@
         <v>372</v>
       </c>
       <c r="C344" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>496</v>
@@ -12285,7 +12282,7 @@
         <v>1124</v>
       </c>
       <c r="F344" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
@@ -12296,7 +12293,7 @@
         <v>191</v>
       </c>
       <c r="C345" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>468</v>
@@ -12305,7 +12302,7 @@
         <v>1123</v>
       </c>
       <c r="F345" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
@@ -12316,7 +12313,7 @@
         <v>247</v>
       </c>
       <c r="C346" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>527</v>
@@ -12325,7 +12322,7 @@
         <v>1124</v>
       </c>
       <c r="F346" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
@@ -12336,7 +12333,7 @@
         <v>368</v>
       </c>
       <c r="C347" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>551</v>
@@ -12345,7 +12342,7 @@
         <v>1124</v>
       </c>
       <c r="F347" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
@@ -12356,7 +12353,7 @@
         <v>127</v>
       </c>
       <c r="C348" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>521</v>
@@ -12365,7 +12362,7 @@
         <v>1123</v>
       </c>
       <c r="F348" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
@@ -12376,7 +12373,7 @@
         <v>214</v>
       </c>
       <c r="C349" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>541</v>
@@ -12385,7 +12382,7 @@
         <v>1123</v>
       </c>
       <c r="F349" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
@@ -12396,7 +12393,7 @@
         <v>974</v>
       </c>
       <c r="C350" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>474</v>
@@ -12405,7 +12402,7 @@
         <v>1124</v>
       </c>
       <c r="F350" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
@@ -12416,7 +12413,7 @@
         <v>452</v>
       </c>
       <c r="C351" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>472</v>
@@ -12425,7 +12422,7 @@
         <v>1123</v>
       </c>
       <c r="F351" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
@@ -12436,7 +12433,7 @@
         <v>976</v>
       </c>
       <c r="C352" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>503</v>
@@ -12445,7 +12442,7 @@
         <v>1124</v>
       </c>
       <c r="F352" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
@@ -12456,7 +12453,7 @@
         <v>252</v>
       </c>
       <c r="C353" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>503</v>
@@ -12465,7 +12462,7 @@
         <v>1123</v>
       </c>
       <c r="F353" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
@@ -12476,7 +12473,7 @@
         <v>359</v>
       </c>
       <c r="C354" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D354" s="4" t="s">
         <v>503</v>
@@ -12485,7 +12482,7 @@
         <v>1123</v>
       </c>
       <c r="F354" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
@@ -12496,7 +12493,7 @@
         <v>979</v>
       </c>
       <c r="C355" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>539</v>
@@ -12505,7 +12502,7 @@
         <v>1124</v>
       </c>
       <c r="F355" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
@@ -12516,7 +12513,7 @@
         <v>980</v>
       </c>
       <c r="C356" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>500</v>
@@ -12525,7 +12522,7 @@
         <v>1123</v>
       </c>
       <c r="F356" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
@@ -12536,7 +12533,7 @@
         <v>187</v>
       </c>
       <c r="C357" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>488</v>
@@ -12545,7 +12542,7 @@
         <v>1124</v>
       </c>
       <c r="F357" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
@@ -12556,7 +12553,7 @@
         <v>387</v>
       </c>
       <c r="C358" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>520</v>
@@ -12565,7 +12562,7 @@
         <v>1124</v>
       </c>
       <c r="F358" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
@@ -12576,7 +12573,7 @@
         <v>419</v>
       </c>
       <c r="C359" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>468</v>
@@ -12585,7 +12582,7 @@
         <v>1123</v>
       </c>
       <c r="F359" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
@@ -12596,7 +12593,7 @@
         <v>106</v>
       </c>
       <c r="C360" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>496</v>
@@ -12605,7 +12602,7 @@
         <v>1123</v>
       </c>
       <c r="F360" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
@@ -12616,7 +12613,7 @@
         <v>304</v>
       </c>
       <c r="C361" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>468</v>
@@ -12625,7 +12622,7 @@
         <v>1124</v>
       </c>
       <c r="F361" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
@@ -12636,7 +12633,7 @@
         <v>281</v>
       </c>
       <c r="C362" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>484</v>
@@ -12645,7 +12642,7 @@
         <v>1124</v>
       </c>
       <c r="F362" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
@@ -12656,7 +12653,7 @@
         <v>982</v>
       </c>
       <c r="C363" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>467</v>
@@ -12665,7 +12662,7 @@
         <v>1124</v>
       </c>
       <c r="F363" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
@@ -12676,7 +12673,7 @@
         <v>259</v>
       </c>
       <c r="C364" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>468</v>
@@ -12685,7 +12682,7 @@
         <v>1124</v>
       </c>
       <c r="F364" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
@@ -12696,7 +12693,7 @@
         <v>223</v>
       </c>
       <c r="C365" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>543</v>
@@ -12705,7 +12702,7 @@
         <v>1123</v>
       </c>
       <c r="F365" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
@@ -12716,7 +12713,7 @@
         <v>392</v>
       </c>
       <c r="C366" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>521</v>
@@ -12725,7 +12722,7 @@
         <v>1123</v>
       </c>
       <c r="F366" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
@@ -12736,7 +12733,7 @@
         <v>334</v>
       </c>
       <c r="C367" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>541</v>
@@ -12745,7 +12742,7 @@
         <v>1123</v>
       </c>
       <c r="F367" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
@@ -12756,7 +12753,7 @@
         <v>282</v>
       </c>
       <c r="C368" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>500</v>
@@ -12765,7 +12762,7 @@
         <v>1124</v>
       </c>
       <c r="F368" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
@@ -12776,7 +12773,7 @@
         <v>245</v>
       </c>
       <c r="C369" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>546</v>
@@ -12785,7 +12782,7 @@
         <v>1124</v>
       </c>
       <c r="F369" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
@@ -12796,7 +12793,7 @@
         <v>217</v>
       </c>
       <c r="C370" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>468</v>
@@ -12805,7 +12802,7 @@
         <v>1123</v>
       </c>
       <c r="F370" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
@@ -12816,7 +12813,7 @@
         <v>309</v>
       </c>
       <c r="C371" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>503</v>
@@ -12825,7 +12822,7 @@
         <v>1123</v>
       </c>
       <c r="F371" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
@@ -12836,7 +12833,7 @@
         <v>985</v>
       </c>
       <c r="C372" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>467</v>
@@ -12845,7 +12842,7 @@
         <v>1124</v>
       </c>
       <c r="F372" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
@@ -12856,7 +12853,7 @@
         <v>190</v>
       </c>
       <c r="C373" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>503</v>
@@ -12865,7 +12862,7 @@
         <v>1123</v>
       </c>
       <c r="F373" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
@@ -12876,7 +12873,7 @@
         <v>435</v>
       </c>
       <c r="C374" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>544</v>
@@ -12885,7 +12882,7 @@
         <v>1124</v>
       </c>
       <c r="F374" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
@@ -12896,7 +12893,7 @@
         <v>987</v>
       </c>
       <c r="C375" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>501</v>
@@ -12905,7 +12902,7 @@
         <v>1123</v>
       </c>
       <c r="F375" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
@@ -12916,7 +12913,7 @@
         <v>990</v>
       </c>
       <c r="C376" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>466</v>
@@ -12925,7 +12922,7 @@
         <v>1124</v>
       </c>
       <c r="F376" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
@@ -12936,7 +12933,7 @@
         <v>103</v>
       </c>
       <c r="C377" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>546</v>
@@ -12945,7 +12942,7 @@
         <v>1124</v>
       </c>
       <c r="F377" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
@@ -12956,7 +12953,7 @@
         <v>991</v>
       </c>
       <c r="C378" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>546</v>
@@ -12965,7 +12962,7 @@
         <v>1124</v>
       </c>
       <c r="F378" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
@@ -12976,7 +12973,7 @@
         <v>166</v>
       </c>
       <c r="C379" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>467</v>
@@ -12985,7 +12982,7 @@
         <v>1124</v>
       </c>
       <c r="F379" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
@@ -12996,7 +12993,7 @@
         <v>376</v>
       </c>
       <c r="C380" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>546</v>
@@ -13005,7 +13002,7 @@
         <v>1124</v>
       </c>
       <c r="F380" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
@@ -13016,7 +13013,7 @@
         <v>994</v>
       </c>
       <c r="C381" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>504</v>
@@ -13025,7 +13022,7 @@
         <v>1124</v>
       </c>
       <c r="F381" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
@@ -13036,7 +13033,7 @@
         <v>995</v>
       </c>
       <c r="C382" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>557</v>
@@ -13045,7 +13042,7 @@
         <v>1124</v>
       </c>
       <c r="F382" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
@@ -13056,7 +13053,7 @@
         <v>277</v>
       </c>
       <c r="C383" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>565</v>
@@ -13065,7 +13062,7 @@
         <v>1123</v>
       </c>
       <c r="F383" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
@@ -13076,7 +13073,7 @@
         <v>113</v>
       </c>
       <c r="C384" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>503</v>
@@ -13085,7 +13082,7 @@
         <v>1123</v>
       </c>
       <c r="F384" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
@@ -13096,7 +13093,7 @@
         <v>453</v>
       </c>
       <c r="C385" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>541</v>
@@ -13105,7 +13102,7 @@
         <v>1123</v>
       </c>
       <c r="F385" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
@@ -13116,7 +13113,7 @@
         <v>997</v>
       </c>
       <c r="C386" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>507</v>
@@ -13125,7 +13122,7 @@
         <v>1123</v>
       </c>
       <c r="F386" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
@@ -13136,7 +13133,7 @@
         <v>195</v>
       </c>
       <c r="C387" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>527</v>
@@ -13145,7 +13142,7 @@
         <v>1124</v>
       </c>
       <c r="F387" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
@@ -13156,7 +13153,7 @@
         <v>454</v>
       </c>
       <c r="C388" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>500</v>
@@ -13165,7 +13162,7 @@
         <v>1124</v>
       </c>
       <c r="F388" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
@@ -13176,7 +13173,7 @@
         <v>384</v>
       </c>
       <c r="C389" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>520</v>
@@ -13185,7 +13182,7 @@
         <v>1123</v>
       </c>
       <c r="F389" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
@@ -13196,7 +13193,7 @@
         <v>420</v>
       </c>
       <c r="C390" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>503</v>
@@ -13205,7 +13202,7 @@
         <v>1123</v>
       </c>
       <c r="F390" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
@@ -13216,7 +13213,7 @@
         <v>316</v>
       </c>
       <c r="C391" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>468</v>
@@ -13225,7 +13222,7 @@
         <v>1123</v>
       </c>
       <c r="F391" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
@@ -13236,7 +13233,7 @@
         <v>220</v>
       </c>
       <c r="C392" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>541</v>
@@ -13245,7 +13242,7 @@
         <v>1123</v>
       </c>
       <c r="F392" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
@@ -13256,7 +13253,7 @@
         <v>122</v>
       </c>
       <c r="C393" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>509</v>
@@ -13265,7 +13262,7 @@
         <v>1123</v>
       </c>
       <c r="F393" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
@@ -13276,7 +13273,7 @@
         <v>1001</v>
       </c>
       <c r="C394" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>484</v>
@@ -13285,7 +13282,7 @@
         <v>1124</v>
       </c>
       <c r="F394" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
@@ -13296,7 +13293,7 @@
         <v>171</v>
       </c>
       <c r="C395" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>518</v>
@@ -13305,7 +13302,7 @@
         <v>1124</v>
       </c>
       <c r="F395" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
@@ -13316,7 +13313,7 @@
         <v>1003</v>
       </c>
       <c r="C396" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>533</v>
@@ -13325,7 +13322,7 @@
         <v>1123</v>
       </c>
       <c r="F396" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
@@ -13336,7 +13333,7 @@
         <v>381</v>
       </c>
       <c r="C397" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>472</v>
@@ -13345,7 +13342,7 @@
         <v>1123</v>
       </c>
       <c r="F397" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
@@ -13356,7 +13353,7 @@
         <v>161</v>
       </c>
       <c r="C398" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>474</v>
@@ -13365,7 +13362,7 @@
         <v>1124</v>
       </c>
       <c r="F398" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
@@ -13376,7 +13373,7 @@
         <v>91</v>
       </c>
       <c r="C399" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>596</v>
@@ -13385,7 +13382,7 @@
         <v>1123</v>
       </c>
       <c r="F399" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
@@ -13396,7 +13393,7 @@
         <v>90</v>
       </c>
       <c r="C400" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D400" s="4" t="s">
         <v>468</v>
@@ -13405,7 +13402,7 @@
         <v>1124</v>
       </c>
       <c r="F400" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
@@ -13416,7 +13413,7 @@
         <v>140</v>
       </c>
       <c r="C401" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D401" s="4" t="s">
         <v>476</v>
@@ -13425,7 +13422,7 @@
         <v>1123</v>
       </c>
       <c r="F401" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
@@ -13436,7 +13433,7 @@
         <v>1005</v>
       </c>
       <c r="C402" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>468</v>
@@ -13445,7 +13442,7 @@
         <v>1124</v>
       </c>
       <c r="F402" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
@@ -13456,7 +13453,7 @@
         <v>449</v>
       </c>
       <c r="C403" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>503</v>
@@ -13465,7 +13462,7 @@
         <v>1123</v>
       </c>
       <c r="F403" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
@@ -13476,7 +13473,7 @@
         <v>96</v>
       </c>
       <c r="C404" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>543</v>
@@ -13485,7 +13482,7 @@
         <v>1123</v>
       </c>
       <c r="F404" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
@@ -13496,7 +13493,7 @@
         <v>1007</v>
       </c>
       <c r="C405" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D405" s="4" t="s">
         <v>557</v>
@@ -13505,7 +13502,7 @@
         <v>1124</v>
       </c>
       <c r="F405" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
@@ -13516,7 +13513,7 @@
         <v>211</v>
       </c>
       <c r="C406" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>530</v>
@@ -13525,7 +13522,7 @@
         <v>1124</v>
       </c>
       <c r="F406" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
@@ -13536,7 +13533,7 @@
         <v>286</v>
       </c>
       <c r="C407" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>472</v>
@@ -13545,7 +13542,7 @@
         <v>1123</v>
       </c>
       <c r="F407" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
@@ -13556,7 +13553,7 @@
         <v>167</v>
       </c>
       <c r="C408" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>504</v>
@@ -13565,7 +13562,7 @@
         <v>1124</v>
       </c>
       <c r="F408" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
@@ -13576,7 +13573,7 @@
         <v>138</v>
       </c>
       <c r="C409" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>468</v>
@@ -13585,7 +13582,7 @@
         <v>1123</v>
       </c>
       <c r="F409" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
@@ -13596,7 +13593,7 @@
         <v>114</v>
       </c>
       <c r="C410" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>480</v>
@@ -13605,7 +13602,7 @@
         <v>1123</v>
       </c>
       <c r="F410" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
@@ -13616,7 +13613,7 @@
         <v>422</v>
       </c>
       <c r="C411" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>472</v>
@@ -13625,7 +13622,7 @@
         <v>1123</v>
       </c>
       <c r="F411" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
@@ -13636,7 +13633,7 @@
         <v>205</v>
       </c>
       <c r="C412" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>472</v>
@@ -13645,7 +13642,7 @@
         <v>1123</v>
       </c>
       <c r="F412" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
@@ -13656,7 +13653,7 @@
         <v>297</v>
       </c>
       <c r="C413" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>468</v>
@@ -13665,7 +13662,7 @@
         <v>1123</v>
       </c>
       <c r="F413" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
@@ -13676,7 +13673,7 @@
         <v>444</v>
       </c>
       <c r="C414" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>507</v>
@@ -13685,7 +13682,7 @@
         <v>1124</v>
       </c>
       <c r="F414" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
@@ -13696,7 +13693,7 @@
         <v>306</v>
       </c>
       <c r="C415" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>509</v>
@@ -13705,7 +13702,7 @@
         <v>1123</v>
       </c>
       <c r="F415" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
@@ -13716,7 +13713,7 @@
         <v>270</v>
       </c>
       <c r="C416" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>544</v>
@@ -13725,7 +13722,7 @@
         <v>1124</v>
       </c>
       <c r="F416" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
@@ -13736,7 +13733,7 @@
         <v>204</v>
       </c>
       <c r="C417" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>468</v>
@@ -13745,7 +13742,7 @@
         <v>1123</v>
       </c>
       <c r="F417" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
@@ -13756,7 +13753,7 @@
         <v>1012</v>
       </c>
       <c r="C418" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>484</v>
@@ -13765,7 +13762,7 @@
         <v>1124</v>
       </c>
       <c r="F418" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
@@ -13776,7 +13773,7 @@
         <v>98</v>
       </c>
       <c r="C419" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>543</v>
@@ -13785,7 +13782,7 @@
         <v>1123</v>
       </c>
       <c r="F419" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
@@ -13796,7 +13793,7 @@
         <v>292</v>
       </c>
       <c r="C420" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>482</v>
@@ -13805,7 +13802,7 @@
         <v>1123</v>
       </c>
       <c r="F420" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
@@ -13816,7 +13813,7 @@
         <v>95</v>
       </c>
       <c r="C421" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>600</v>
@@ -13825,7 +13822,7 @@
         <v>1123</v>
       </c>
       <c r="F421" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
@@ -13836,7 +13833,7 @@
         <v>363</v>
       </c>
       <c r="C422" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>565</v>
@@ -13845,7 +13842,7 @@
         <v>1123</v>
       </c>
       <c r="F422" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
@@ -13856,7 +13853,7 @@
         <v>439</v>
       </c>
       <c r="C423" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>468</v>
@@ -13865,7 +13862,7 @@
         <v>1123</v>
       </c>
       <c r="F423" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
@@ -13876,7 +13873,7 @@
         <v>280</v>
       </c>
       <c r="C424" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>520</v>
@@ -13885,7 +13882,7 @@
         <v>1124</v>
       </c>
       <c r="F424" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
@@ -13896,7 +13893,7 @@
         <v>133</v>
       </c>
       <c r="C425" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>541</v>
@@ -13905,7 +13902,7 @@
         <v>1123</v>
       </c>
       <c r="F425" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
@@ -13916,7 +13913,7 @@
         <v>315</v>
       </c>
       <c r="C426" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>500</v>
@@ -13925,7 +13922,7 @@
         <v>1123</v>
       </c>
       <c r="F426" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
@@ -13936,7 +13933,7 @@
         <v>261</v>
       </c>
       <c r="C427" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>533</v>
@@ -13945,7 +13942,7 @@
         <v>1123</v>
       </c>
       <c r="F427" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
@@ -13956,7 +13953,7 @@
         <v>93</v>
       </c>
       <c r="C428" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>598</v>
@@ -13965,7 +13962,7 @@
         <v>1124</v>
       </c>
       <c r="F428" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
@@ -13976,7 +13973,7 @@
         <v>386</v>
       </c>
       <c r="C429" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>501</v>
@@ -13985,7 +13982,7 @@
         <v>1123</v>
       </c>
       <c r="F429" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
@@ -13996,7 +13993,7 @@
         <v>251</v>
       </c>
       <c r="C430" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>503</v>
@@ -14005,7 +14002,7 @@
         <v>1124</v>
       </c>
       <c r="F430" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
@@ -14016,7 +14013,7 @@
         <v>184</v>
       </c>
       <c r="C431" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>544</v>
@@ -14025,7 +14022,7 @@
         <v>1124</v>
       </c>
       <c r="F431" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
@@ -14036,7 +14033,7 @@
         <v>179</v>
       </c>
       <c r="C432" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>503</v>
@@ -14045,7 +14042,7 @@
         <v>1123</v>
       </c>
       <c r="F432" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
@@ -14056,7 +14053,7 @@
         <v>193</v>
       </c>
       <c r="C433" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>474</v>
@@ -14065,7 +14062,7 @@
         <v>1124</v>
       </c>
       <c r="F433" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
@@ -14076,7 +14073,7 @@
         <v>300</v>
       </c>
       <c r="C434" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>518</v>
@@ -14085,7 +14082,7 @@
         <v>1124</v>
       </c>
       <c r="F434" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
@@ -14096,7 +14093,7 @@
         <v>347</v>
       </c>
       <c r="C435" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>488</v>
@@ -14105,7 +14102,7 @@
         <v>1124</v>
       </c>
       <c r="F435" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
@@ -14116,7 +14113,7 @@
         <v>287</v>
       </c>
       <c r="C436" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>504</v>
@@ -14125,7 +14122,7 @@
         <v>1124</v>
       </c>
       <c r="F436" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
@@ -14136,7 +14133,7 @@
         <v>442</v>
       </c>
       <c r="C437" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>555</v>
@@ -14145,7 +14142,7 @@
         <v>1124</v>
       </c>
       <c r="F437" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
@@ -14156,7 +14153,7 @@
         <v>1020</v>
       </c>
       <c r="C438" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>478</v>
@@ -14165,7 +14162,7 @@
         <v>1124</v>
       </c>
       <c r="F438" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
@@ -14176,7 +14173,7 @@
         <v>1019</v>
       </c>
       <c r="C439" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>500</v>
@@ -14185,7 +14182,7 @@
         <v>1123</v>
       </c>
       <c r="F439" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
@@ -14196,7 +14193,7 @@
         <v>229</v>
       </c>
       <c r="C440" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>500</v>
@@ -14205,7 +14202,7 @@
         <v>1124</v>
       </c>
       <c r="F440" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
@@ -14216,7 +14213,7 @@
         <v>445</v>
       </c>
       <c r="C441" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>484</v>
@@ -14225,7 +14222,7 @@
         <v>1124</v>
       </c>
       <c r="F441" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
@@ -14236,7 +14233,7 @@
         <v>222</v>
       </c>
       <c r="C442" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>468</v>
@@ -14245,7 +14242,7 @@
         <v>1123</v>
       </c>
       <c r="F442" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
@@ -14256,7 +14253,7 @@
         <v>456</v>
       </c>
       <c r="C443" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>468</v>
@@ -14265,7 +14262,7 @@
         <v>1123</v>
       </c>
       <c r="F443" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
@@ -14276,7 +14273,7 @@
         <v>341</v>
       </c>
       <c r="C444" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>501</v>
@@ -14285,7 +14282,7 @@
         <v>1123</v>
       </c>
       <c r="F444" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
@@ -14296,7 +14293,7 @@
         <v>213</v>
       </c>
       <c r="C445" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>533</v>
@@ -14305,7 +14302,7 @@
         <v>1123</v>
       </c>
       <c r="F445" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
@@ -14316,7 +14313,7 @@
         <v>158</v>
       </c>
       <c r="C446" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>520</v>
@@ -14325,7 +14322,7 @@
         <v>1124</v>
       </c>
       <c r="F446" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
@@ -14336,7 +14333,7 @@
         <v>295</v>
       </c>
       <c r="C447" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>494</v>
@@ -14345,7 +14342,7 @@
         <v>1123</v>
       </c>
       <c r="F447" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
@@ -14356,7 +14353,7 @@
         <v>92</v>
       </c>
       <c r="C448" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>597</v>
@@ -14365,7 +14362,7 @@
         <v>1123</v>
       </c>
       <c r="F448" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
@@ -14376,7 +14373,7 @@
         <v>1025</v>
       </c>
       <c r="C449" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>520</v>
@@ -14385,7 +14382,7 @@
         <v>1124</v>
       </c>
       <c r="F449" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
@@ -14396,7 +14393,7 @@
         <v>1027</v>
       </c>
       <c r="C450" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>1028</v>
@@ -14405,7 +14402,7 @@
         <v>1123</v>
       </c>
       <c r="F450" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
@@ -14416,7 +14413,7 @@
         <v>342</v>
       </c>
       <c r="C451" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>468</v>
@@ -14425,7 +14422,7 @@
         <v>1123</v>
       </c>
       <c r="F451" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
@@ -14436,7 +14433,7 @@
         <v>215</v>
       </c>
       <c r="C452" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>501</v>
@@ -14445,7 +14442,7 @@
         <v>1123</v>
       </c>
       <c r="F452" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
@@ -14456,7 +14453,7 @@
         <v>206</v>
       </c>
       <c r="C453" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>464</v>
@@ -14465,7 +14462,7 @@
         <v>1124</v>
       </c>
       <c r="F453" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
@@ -14476,7 +14473,7 @@
         <v>405</v>
       </c>
       <c r="C454" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>544</v>
@@ -14485,7 +14482,7 @@
         <v>1123</v>
       </c>
       <c r="F454" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
@@ -14496,7 +14493,7 @@
         <v>279</v>
       </c>
       <c r="C455" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>533</v>
@@ -14505,7 +14502,7 @@
         <v>1123</v>
       </c>
       <c r="F455" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
@@ -14516,7 +14513,7 @@
         <v>314</v>
       </c>
       <c r="C456" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>468</v>
@@ -14525,7 +14522,7 @@
         <v>1123</v>
       </c>
       <c r="F456" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
@@ -14536,7 +14533,7 @@
         <v>197</v>
       </c>
       <c r="C457" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>533</v>
@@ -14545,7 +14542,7 @@
         <v>1123</v>
       </c>
       <c r="F457" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
@@ -14556,7 +14553,7 @@
         <v>274</v>
       </c>
       <c r="C458" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>458</v>
@@ -14565,7 +14562,7 @@
         <v>1123</v>
       </c>
       <c r="F458" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
@@ -14576,7 +14573,7 @@
         <v>128</v>
       </c>
       <c r="C459" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>518</v>
@@ -14585,7 +14582,7 @@
         <v>1123</v>
       </c>
       <c r="F459" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
@@ -14596,7 +14593,7 @@
         <v>234</v>
       </c>
       <c r="C460" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>476</v>
@@ -14605,7 +14602,7 @@
         <v>1124</v>
       </c>
       <c r="F460" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.2">
@@ -14616,7 +14613,7 @@
         <v>328</v>
       </c>
       <c r="C461" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>496</v>
@@ -14625,7 +14622,7 @@
         <v>1124</v>
       </c>
       <c r="F461" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
@@ -14636,7 +14633,7 @@
         <v>258</v>
       </c>
       <c r="C462" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>496</v>
@@ -14645,7 +14642,7 @@
         <v>1123</v>
       </c>
       <c r="F462" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.2">
@@ -14656,7 +14653,7 @@
         <v>317</v>
       </c>
       <c r="C463" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>521</v>
@@ -14665,7 +14662,7 @@
         <v>1123</v>
       </c>
       <c r="F463" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
@@ -14676,7 +14673,7 @@
         <v>1122</v>
       </c>
       <c r="C464" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>484</v>
@@ -14685,7 +14682,7 @@
         <v>1124</v>
       </c>
       <c r="F464" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.2">
@@ -14696,7 +14693,7 @@
         <v>343</v>
       </c>
       <c r="C465" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>504</v>
@@ -14705,7 +14702,7 @@
         <v>1123</v>
       </c>
       <c r="F465" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.2">
@@ -14716,7 +14713,7 @@
         <v>285</v>
       </c>
       <c r="C466" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>468</v>
@@ -14725,7 +14722,7 @@
         <v>1123</v>
       </c>
       <c r="F466" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.2">
@@ -14736,7 +14733,7 @@
         <v>434</v>
       </c>
       <c r="C467" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>472</v>
@@ -14745,7 +14742,7 @@
         <v>1123</v>
       </c>
       <c r="F467" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
@@ -14756,7 +14753,7 @@
         <v>263</v>
       </c>
       <c r="C468" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>457</v>
@@ -14765,7 +14762,7 @@
         <v>1124</v>
       </c>
       <c r="F468" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.2">
@@ -14776,7 +14773,7 @@
         <v>302</v>
       </c>
       <c r="C469" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D469" s="4" t="s">
         <v>472</v>
@@ -14785,7 +14782,7 @@
         <v>1123</v>
       </c>
       <c r="F469" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.2">
@@ -14796,7 +14793,7 @@
         <v>121</v>
       </c>
       <c r="C470" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>467</v>
@@ -14805,7 +14802,7 @@
         <v>1123</v>
       </c>
       <c r="F470" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.2">
@@ -14816,7 +14813,7 @@
         <v>262</v>
       </c>
       <c r="C471" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D471" s="4" t="s">
         <v>518</v>
@@ -14825,7 +14822,7 @@
         <v>1123</v>
       </c>
       <c r="F471" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.2">
@@ -14836,7 +14833,7 @@
         <v>340</v>
       </c>
       <c r="C472" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D472" s="4" t="s">
         <v>491</v>
@@ -14845,7 +14842,7 @@
         <v>1124</v>
       </c>
       <c r="F472" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
@@ -14853,7 +14850,7 @@
         <v>1033</v>
       </c>
       <c r="C473" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>472</v>
@@ -14862,7 +14859,7 @@
         <v>1124</v>
       </c>
       <c r="F473" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
@@ -14873,7 +14870,7 @@
         <v>210</v>
       </c>
       <c r="C474" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>551</v>
@@ -14882,7 +14879,7 @@
         <v>1124</v>
       </c>
       <c r="F474" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.2">
@@ -14893,7 +14890,7 @@
         <v>291</v>
       </c>
       <c r="C475" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>544</v>
@@ -14902,7 +14899,7 @@
         <v>1124</v>
       </c>
       <c r="F475" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.2">
@@ -14913,7 +14910,7 @@
         <v>398</v>
       </c>
       <c r="C476" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>520</v>
@@ -14922,7 +14919,7 @@
         <v>1123</v>
       </c>
       <c r="F476" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.2">
@@ -14933,7 +14930,7 @@
         <v>413</v>
       </c>
       <c r="C477" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>521</v>
@@ -14942,7 +14939,7 @@
         <v>1123</v>
       </c>
       <c r="F477" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.2">
@@ -14953,7 +14950,7 @@
         <v>1035</v>
       </c>
       <c r="C478" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>507</v>
@@ -14962,7 +14959,7 @@
         <v>1124</v>
       </c>
       <c r="F478" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.2">
@@ -14973,7 +14970,7 @@
         <v>311</v>
       </c>
       <c r="C479" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>468</v>
@@ -14982,7 +14979,7 @@
         <v>1123</v>
       </c>
       <c r="F479" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.2">
@@ -14993,7 +14990,7 @@
         <v>136</v>
       </c>
       <c r="C480" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>476</v>
@@ -15002,7 +14999,7 @@
         <v>1123</v>
       </c>
       <c r="F480" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.2">
@@ -15013,7 +15010,7 @@
         <v>119</v>
       </c>
       <c r="C481" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D481" s="4" t="s">
         <v>543</v>
@@ -15022,7 +15019,7 @@
         <v>1124</v>
       </c>
       <c r="F481" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.2">
@@ -15033,7 +15030,7 @@
         <v>1037</v>
       </c>
       <c r="C482" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D482" s="4" t="s">
         <v>468</v>
@@ -15042,7 +15039,7 @@
         <v>1124</v>
       </c>
       <c r="F482" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.2">
@@ -15053,7 +15050,7 @@
         <v>375</v>
       </c>
       <c r="C483" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D483" s="4" t="s">
         <v>503</v>
@@ -15062,7 +15059,7 @@
         <v>1124</v>
       </c>
       <c r="F483" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.2">
@@ -15073,7 +15070,7 @@
         <v>118</v>
       </c>
       <c r="C484" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D484" s="4" t="s">
         <v>565</v>
@@ -15082,7 +15079,7 @@
         <v>1124</v>
       </c>
       <c r="F484" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.2">
@@ -15093,7 +15090,7 @@
         <v>446</v>
       </c>
       <c r="C485" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D485" s="4" t="s">
         <v>520</v>
@@ -15102,7 +15099,7 @@
         <v>1124</v>
       </c>
       <c r="F485" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.2">
@@ -15113,7 +15110,7 @@
         <v>120</v>
       </c>
       <c r="C486" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D486" s="4" t="s">
         <v>467</v>
@@ -15122,7 +15119,7 @@
         <v>1123</v>
       </c>
       <c r="F486" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.2">
@@ -15133,7 +15130,7 @@
         <v>198</v>
       </c>
       <c r="C487" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D487" s="4" t="s">
         <v>557</v>
@@ -15142,7 +15139,7 @@
         <v>1124</v>
       </c>
       <c r="F487" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.2">
@@ -15153,7 +15150,7 @@
         <v>233</v>
       </c>
       <c r="C488" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D488" s="4" t="s">
         <v>494</v>
@@ -15162,7 +15159,7 @@
         <v>1124</v>
       </c>
       <c r="F488" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.2">
@@ -15173,7 +15170,7 @@
         <v>1039</v>
       </c>
       <c r="C489" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D489" s="4" t="s">
         <v>518</v>
@@ -15182,7 +15179,7 @@
         <v>1123</v>
       </c>
       <c r="F489" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.2">
@@ -15193,7 +15190,7 @@
         <v>151</v>
       </c>
       <c r="C490" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D490" s="4" t="s">
         <v>503</v>
@@ -15202,7 +15199,7 @@
         <v>1123</v>
       </c>
       <c r="F490" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.2">
@@ -15213,7 +15210,7 @@
         <v>351</v>
       </c>
       <c r="C491" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D491" s="4" t="s">
         <v>468</v>
@@ -15222,7 +15219,7 @@
         <v>1123</v>
       </c>
       <c r="F491" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.2">
@@ -15233,7 +15230,7 @@
         <v>189</v>
       </c>
       <c r="C492" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D492" s="4" t="s">
         <v>468</v>
@@ -15242,7 +15239,7 @@
         <v>1123</v>
       </c>
       <c r="F492" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.2">
@@ -15253,7 +15250,7 @@
         <v>117</v>
       </c>
       <c r="C493" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D493" s="4" t="s">
         <v>484</v>
@@ -15262,7 +15259,7 @@
         <v>1124</v>
       </c>
       <c r="F493" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.2">
@@ -15273,7 +15270,7 @@
         <v>424</v>
       </c>
       <c r="C494" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>530</v>
@@ -15282,7 +15279,7 @@
         <v>1123</v>
       </c>
       <c r="F494" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.2">
@@ -15293,7 +15290,7 @@
         <v>303</v>
       </c>
       <c r="C495" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D495" s="4" t="s">
         <v>544</v>
@@ -15302,7 +15299,7 @@
         <v>1124</v>
       </c>
       <c r="F495" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.2">
@@ -15313,7 +15310,7 @@
         <v>212</v>
       </c>
       <c r="C496" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D496" s="4" t="s">
         <v>468</v>
@@ -15322,7 +15319,7 @@
         <v>1123</v>
       </c>
       <c r="F496" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.2">
@@ -15333,7 +15330,7 @@
         <v>1043</v>
       </c>
       <c r="C497" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D497" s="4" t="s">
         <v>565</v>
@@ -15342,7 +15339,7 @@
         <v>1124</v>
       </c>
       <c r="F497" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.2">
@@ -15353,7 +15350,7 @@
         <v>101</v>
       </c>
       <c r="C498" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D498" s="4" t="s">
         <v>474</v>
@@ -15362,7 +15359,7 @@
         <v>1124</v>
       </c>
       <c r="F498" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.2">
@@ -15373,7 +15370,7 @@
         <v>427</v>
       </c>
       <c r="C499" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D499" s="4" t="s">
         <v>548</v>
@@ -15382,7 +15379,7 @@
         <v>1123</v>
       </c>
       <c r="F499" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.2">
@@ -15393,7 +15390,7 @@
         <v>124</v>
       </c>
       <c r="C500" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D500" s="4" t="s">
         <v>467</v>
@@ -15402,7 +15399,7 @@
         <v>1123</v>
       </c>
       <c r="F500" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.2">
@@ -15413,7 +15410,7 @@
         <v>266</v>
       </c>
       <c r="C501" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D501" s="4" t="s">
         <v>503</v>
@@ -15422,7 +15419,7 @@
         <v>1123</v>
       </c>
       <c r="F501" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.2">
@@ -15433,7 +15430,7 @@
         <v>240</v>
       </c>
       <c r="C502" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D502" s="4" t="s">
         <v>468</v>
@@ -15442,7 +15439,7 @@
         <v>1123</v>
       </c>
       <c r="F502" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.2">
@@ -15453,7 +15450,7 @@
         <v>1046</v>
       </c>
       <c r="C503" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D503" s="4" t="s">
         <v>503</v>
@@ -15462,7 +15459,7 @@
         <v>1123</v>
       </c>
       <c r="F503" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
@@ -15473,7 +15470,7 @@
         <v>125</v>
       </c>
       <c r="C504" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D504" s="4" t="s">
         <v>541</v>
@@ -15482,7 +15479,7 @@
         <v>1123</v>
       </c>
       <c r="F504" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
@@ -15493,7 +15490,7 @@
         <v>132</v>
       </c>
       <c r="C505" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D505" s="4" t="s">
         <v>501</v>
@@ -15502,7 +15499,7 @@
         <v>1123</v>
       </c>
       <c r="F505" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
@@ -15513,7 +15510,7 @@
         <v>260</v>
       </c>
       <c r="C506" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D506" s="4" t="s">
         <v>494</v>
@@ -15522,7 +15519,7 @@
         <v>1124</v>
       </c>
       <c r="F506" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
@@ -15533,7 +15530,7 @@
         <v>131</v>
       </c>
       <c r="C507" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D507" s="4" t="s">
         <v>533</v>
@@ -15542,7 +15539,7 @@
         <v>1123</v>
       </c>
       <c r="F507" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
@@ -15553,7 +15550,7 @@
         <v>428</v>
       </c>
       <c r="C508" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D508" s="4" t="s">
         <v>467</v>
@@ -15562,7 +15559,7 @@
         <v>1124</v>
       </c>
       <c r="F508" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
@@ -15573,7 +15570,7 @@
         <v>1048</v>
       </c>
       <c r="C509" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D509" s="4" t="s">
         <v>468</v>
@@ -15582,7 +15579,7 @@
         <v>1124</v>
       </c>
       <c r="F509" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
@@ -15590,7 +15587,7 @@
         <v>1049</v>
       </c>
       <c r="C510" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D510" s="4" t="s">
         <v>472</v>
@@ -15599,7 +15596,7 @@
         <v>1124</v>
       </c>
       <c r="F510" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
@@ -15610,7 +15607,7 @@
         <v>1051</v>
       </c>
       <c r="C511" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D511" s="4" t="s">
         <v>484</v>
@@ -15619,7 +15616,7 @@
         <v>1124</v>
       </c>
       <c r="F511" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
@@ -15630,7 +15627,7 @@
         <v>207</v>
       </c>
       <c r="C512" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D512" s="4" t="s">
         <v>468</v>
@@ -15639,7 +15636,7 @@
         <v>1123</v>
       </c>
       <c r="F512" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.2">
@@ -15650,7 +15647,7 @@
         <v>199</v>
       </c>
       <c r="C513" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D513" s="4" t="s">
         <v>484</v>
@@ -15659,7 +15656,7 @@
         <v>1124</v>
       </c>
       <c r="F513" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
@@ -15670,7 +15667,7 @@
         <v>361</v>
       </c>
       <c r="C514" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D514" s="4" t="s">
         <v>484</v>
@@ -15679,7 +15676,7 @@
         <v>1123</v>
       </c>
       <c r="F514" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.2">
@@ -15690,7 +15687,7 @@
         <v>257</v>
       </c>
       <c r="C515" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D515" s="4" t="s">
         <v>503</v>
@@ -15699,7 +15696,7 @@
         <v>1123</v>
       </c>
       <c r="F515" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
@@ -15710,7 +15707,7 @@
         <v>355</v>
       </c>
       <c r="C516" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D516" s="4" t="s">
         <v>551</v>
@@ -15719,7 +15716,7 @@
         <v>1124</v>
       </c>
       <c r="F516" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.2">
@@ -15730,7 +15727,7 @@
         <v>243</v>
       </c>
       <c r="C517" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D517" s="4" t="s">
         <v>467</v>
@@ -15739,7 +15736,7 @@
         <v>1124</v>
       </c>
       <c r="F517" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.2">
@@ -15750,7 +15747,7 @@
         <v>357</v>
       </c>
       <c r="C518" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D518" s="4" t="s">
         <v>507</v>
@@ -15759,7 +15756,7 @@
         <v>1124</v>
       </c>
       <c r="F518" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.2">
@@ -15767,10 +15764,10 @@
         <v>1053</v>
       </c>
       <c r="B519" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C519" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D519" s="4" t="s">
         <v>520</v>
@@ -15779,7 +15776,7 @@
         <v>1124</v>
       </c>
       <c r="F519" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
@@ -15790,7 +15787,7 @@
         <v>362</v>
       </c>
       <c r="C520" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D520" s="4" t="s">
         <v>520</v>
@@ -15799,7 +15796,7 @@
         <v>1124</v>
       </c>
       <c r="F520" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
@@ -15810,7 +15807,7 @@
         <v>288</v>
       </c>
       <c r="C521" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D521" s="4" t="s">
         <v>468</v>
@@ -15819,7 +15816,7 @@
         <v>1123</v>
       </c>
       <c r="F521" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
@@ -15830,7 +15827,7 @@
         <v>178</v>
       </c>
       <c r="C522" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D522" s="4" t="s">
         <v>472</v>
@@ -15839,7 +15836,7 @@
         <v>1123</v>
       </c>
       <c r="F522" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.2">
@@ -15850,7 +15847,7 @@
         <v>192</v>
       </c>
       <c r="C523" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D523" s="4" t="s">
         <v>484</v>
@@ -15859,7 +15856,7 @@
         <v>1124</v>
       </c>
       <c r="F523" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.2">
@@ -15870,7 +15867,7 @@
         <v>339</v>
       </c>
       <c r="C524" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D524" s="4" t="s">
         <v>520</v>
@@ -15879,7 +15876,7 @@
         <v>1124</v>
       </c>
       <c r="F524" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.2">
@@ -15890,7 +15887,7 @@
         <v>208</v>
       </c>
       <c r="C525" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D525" s="4" t="s">
         <v>524</v>
@@ -15899,7 +15896,7 @@
         <v>1123</v>
       </c>
       <c r="F525" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.2">
@@ -15910,7 +15907,7 @@
         <v>224</v>
       </c>
       <c r="C526" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D526" s="4" t="s">
         <v>494</v>
@@ -15919,7 +15916,7 @@
         <v>1124</v>
       </c>
       <c r="F526" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.2">
@@ -15930,7 +15927,7 @@
         <v>370</v>
       </c>
       <c r="C527" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D527" s="4" t="s">
         <v>516</v>
@@ -15939,7 +15936,7 @@
         <v>1124</v>
       </c>
       <c r="F527" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
@@ -15950,7 +15947,7 @@
         <v>110</v>
       </c>
       <c r="C528" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D528" s="4" t="s">
         <v>521</v>
@@ -15959,7 +15956,7 @@
         <v>1123</v>
       </c>
       <c r="F528" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.2">
@@ -15970,7 +15967,7 @@
         <v>115</v>
       </c>
       <c r="C529" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D529" s="4" t="s">
         <v>544</v>
@@ -15979,7 +15976,7 @@
         <v>1123</v>
       </c>
       <c r="F529" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.2">
@@ -15990,7 +15987,7 @@
         <v>1055</v>
       </c>
       <c r="C530" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D530" s="4" t="s">
         <v>496</v>
@@ -15999,7 +15996,7 @@
         <v>1123</v>
       </c>
       <c r="F530" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.2">
@@ -16010,7 +16007,7 @@
         <v>360</v>
       </c>
       <c r="C531" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D531" s="4" t="s">
         <v>484</v>
@@ -16019,7 +16016,7 @@
         <v>1124</v>
       </c>
       <c r="F531" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
@@ -16030,7 +16027,7 @@
         <v>236</v>
       </c>
       <c r="C532" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D532" s="4" t="s">
         <v>520</v>
@@ -16039,7 +16036,7 @@
         <v>1123</v>
       </c>
       <c r="F532" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
@@ -16050,7 +16047,7 @@
         <v>338</v>
       </c>
       <c r="C533" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D533" s="4" t="s">
         <v>474</v>
@@ -16059,7 +16056,7 @@
         <v>1124</v>
       </c>
       <c r="F533" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.2">
@@ -16070,7 +16067,7 @@
         <v>293</v>
       </c>
       <c r="C534" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D534" s="4" t="s">
         <v>521</v>
@@ -16079,7 +16076,7 @@
         <v>1124</v>
       </c>
       <c r="F534" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.2">
@@ -16090,7 +16087,7 @@
         <v>237</v>
       </c>
       <c r="C535" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D535" s="4" t="s">
         <v>516</v>
@@ -16099,7 +16096,7 @@
         <v>1124</v>
       </c>
       <c r="F535" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.2">
@@ -16110,7 +16107,7 @@
         <v>437</v>
       </c>
       <c r="C536" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D536" s="4" t="s">
         <v>484</v>
@@ -16119,7 +16116,7 @@
         <v>1124</v>
       </c>
       <c r="F536" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
@@ -16130,7 +16127,7 @@
         <v>216</v>
       </c>
       <c r="C537" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D537" s="4" t="s">
         <v>488</v>
@@ -16139,7 +16136,7 @@
         <v>1123</v>
       </c>
       <c r="F537" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
@@ -16150,7 +16147,7 @@
         <v>418</v>
       </c>
       <c r="C538" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D538" s="4" t="s">
         <v>493</v>
@@ -16159,7 +16156,7 @@
         <v>1124</v>
       </c>
       <c r="F538" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.2">
@@ -16170,7 +16167,7 @@
         <v>451</v>
       </c>
       <c r="C539" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D539" s="4" t="s">
         <v>503</v>
@@ -16179,7 +16176,7 @@
         <v>1124</v>
       </c>
       <c r="F539" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
